--- a/output/LUAD_statistics_proximal proliferative (PP, magnoid).xlsx
+++ b/output/LUAD_statistics_proximal proliferative (PP, magnoid).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="167">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,312 +54,318 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>63</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
+    <t>Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
   </si>
   <si>
     <t>Mutation TP53</t>
   </si>
   <si>
+    <t>Deletion ARID1B</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Pattern KRAS_and_STK11</t>
+  </si>
+  <si>
+    <t>Amplification ATM</t>
+  </si>
+  <si>
     <t>Mutation KEAP1</t>
   </si>
   <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation SETD2</t>
-  </si>
-  <si>
-    <t>Deletion ARID1B</t>
-  </si>
-  <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
     <t>Mutation NF1</t>
   </si>
   <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
     <t>Mutation RBM10</t>
   </si>
   <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Amplification ATM</t>
-  </si>
-  <si>
     <t>Pattern XOR_KEAP1</t>
   </si>
   <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Pattern XOR_SMARCA4</t>
+  </si>
+  <si>
     <t>Amplification EGFR</t>
   </si>
   <si>
+    <t>Deletion ROS1</t>
+  </si>
+  <si>
+    <t>Mutation CCND1</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Amplification ERBB2</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Mutation TSC1</t>
+  </si>
+  <si>
+    <t>Pattern OR_PIK3CA</t>
+  </si>
+  <si>
+    <t>Pattern XOR_CCND1</t>
+  </si>
+  <si>
+    <t>Amplification NFE2L2</t>
+  </si>
+  <si>
     <t>Amplification PIK3CA</t>
   </si>
   <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Amplification NFE2L2</t>
-  </si>
-  <si>
     <t>Amplification RIT1</t>
   </si>
   <si>
-    <t>Mutation CCND1</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Pattern OR_PIK3CA</t>
+    <t>Deletion RB1</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Pattern XOR_ROS1</t>
+  </si>
+  <si>
+    <t>Deletion ARID2</t>
+  </si>
+  <si>
+    <t>Deletion KEAP1</t>
   </si>
   <si>
     <t>Pattern XOR_RIT1</t>
   </si>
   <si>
-    <t>Deletion ROS1</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Mutation TSC1</t>
-  </si>
-  <si>
-    <t>Pattern XOR_ROS1</t>
-  </si>
-  <si>
-    <t>Pattern XOR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Amplification ERBB2</t>
-  </si>
-  <si>
-    <t>Deletion ARID2</t>
-  </si>
-  <si>
-    <t>Deletion KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Pattern XOR_CCND1</t>
-  </si>
-  <si>
-    <t>Deletion RB1</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
     <t>Amplification AKT1</t>
   </si>
   <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
     <t>Amplification MDM2</t>
   </si>
   <si>
@@ -486,28 +492,28 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>70</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
   </si>
 </sst>
 </file>
@@ -605,43 +611,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>0.00264948356786914</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06674780108582E-6</v>
+        <v>4.85508434727297E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00442651694436194</v>
+        <v>2.77854959711031E-4</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.05901639344262295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.011462391783280344</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0524590163934426</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.0169310747375188</v>
       </c>
     </row>
     <row r="3">
@@ -649,25 +655,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.68773015978005E-6</v>
+        <v>0.0610669681744784</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>8.11198387904296E-6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>5.51193654396454E-5</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -676,16 +682,16 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.15245901639344261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.02051910749237004</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.150819672131148</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0229247835665607</v>
       </c>
     </row>
     <row r="4">
@@ -693,40 +699,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
         <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="n">
         <v>7.66181599492114E-6</v>
       </c>
       <c r="G4" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>2.06674780108582E-6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00706086939858773</v>
+        <v>0.00442651694436194</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11475409836065574</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.114754098360656</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -737,25 +743,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>0.00526662032626969</v>
       </c>
       <c r="G5" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>5.05700902234169E-6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0140173036571462</v>
+        <v>2.77854959711031E-4</v>
       </c>
       <c r="I5" t="n">
         <v>60.0</v>
@@ -764,16 +770,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.01393174730489832</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0573770491803279</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0115919144456811</v>
       </c>
     </row>
     <row r="6">
@@ -781,25 +787,25 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="E6" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="F6" t="n">
-        <v>8.86956258606943E-6</v>
+        <v>3.82704214845158E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>1.25365254515941E-5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00258960788016878</v>
+        <v>0.00819672131147542</v>
       </c>
       <c r="I6" t="n">
         <v>60.0</v>
@@ -808,13 +814,13 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.21311475409836064</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.213114754098361</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -825,25 +831,25 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.82704214845158E-5</v>
+        <v>7.50779552135965E-6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.25365254515941E-5</v>
+        <v>1.27649430555578E-5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00819672131147542</v>
+        <v>0.0427896637954987</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -852,13 +858,13 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03770491803278689</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.015552185213942846</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -869,25 +875,25 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00264948356786914</v>
+        <v>0.211145766579027</v>
       </c>
       <c r="G8" t="n">
-        <v>4.85508434727297E-6</v>
+        <v>9.61482991365883E-8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>3.12480110971832E-4</v>
       </c>
       <c r="I8" t="n">
         <v>60.0</v>
@@ -896,16 +902,16 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.060655737704918035</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L8" t="n">
-        <v>0.011064730454271358</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0508196721311475</v>
+        <v>0.283606557377049</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0163021135411763</v>
+        <v>0.0155521852139428</v>
       </c>
     </row>
     <row r="9">
@@ -913,25 +919,25 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
         <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>7.66181599492114E-6</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5845282503788E-5</v>
+        <v>7.30630227306503E-6</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0198402813041937</v>
+        <v>0.00706086939858773</v>
       </c>
       <c r="I9" t="n">
         <v>60.0</v>
@@ -940,13 +946,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.114754098360656</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -957,43 +963,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.07301348573946E-4</v>
+        <v>7.33124926812689E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.84593196546353E-7</v>
+        <v>1.26884414641834E-5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00634808858158152</v>
+        <v>0.0101139205334815</v>
       </c>
       <c r="I10" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L10" t="n">
-        <v>0.023183828891362206</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.285245901639344</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0269925443392972</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1001,25 +1007,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" t="n">
         <v>2.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00526662032626969</v>
+        <v>0.295197089774301</v>
       </c>
       <c r="G11" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>5.97404173590969E-4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>5.46448087431694E-4</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -1028,13 +1034,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0639344262295082</v>
+        <v>0.04590163934426229</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005184061737980951</v>
+        <v>0.006912082317307932</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0639344262295082</v>
+        <v>0.0475409836065574</v>
       </c>
       <c r="N11" t="n">
         <v>0.00518406173798095</v>
@@ -1045,10 +1051,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
         <v>23.0</v>
@@ -1089,25 +1095,25 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.211145766579027</v>
+        <v>1.20522706918027E-5</v>
       </c>
       <c r="G13" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.12480110971832E-4</v>
+        <v>0.0114754098360656</v>
       </c>
       <c r="I13" t="n">
         <v>40.0</v>
@@ -1116,16 +1122,16 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.281967213114754</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00691208231730794</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1133,25 +1139,25 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.20522706918027E-5</v>
+        <v>7.73976893251139E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>1.5845282503788E-5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0114754098360656</v>
+        <v>0.0198402813041937</v>
       </c>
       <c r="I14" t="n">
         <v>40.0</v>
@@ -1160,13 +1166,13 @@
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1177,25 +1183,25 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D15" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E15" t="n">
         <v>5.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00232438553073653</v>
+        <v>0.0586083640377196</v>
       </c>
       <c r="G15" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>9.64416941005178E-5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00312851573511295</v>
+        <v>0.00213660882812275</v>
       </c>
       <c r="I15" t="n">
         <v>40.0</v>
@@ -1204,16 +1210,16 @@
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.12131147540983607</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>0.013824164634615867</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0836065573770492</v>
+        <v>0.111475409836066</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00518406173798095</v>
+        <v>0.0241922881105778</v>
       </c>
     </row>
     <row r="16">
@@ -1221,43 +1227,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D16" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0610669681744784</v>
+        <v>7.73976893251139E-6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>5.10853582139852E-6</v>
       </c>
       <c r="H16" t="n">
-        <v>5.51193654396454E-5</v>
+        <v>0.0140173036571462</v>
       </c>
       <c r="I16" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.14754098360655737</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L16" t="n">
-        <v>0.017280205793269828</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.147540983606557</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0133851898512742</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -1265,25 +1271,25 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D17" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.295197089774301</v>
+        <v>7.68773015978005E-6</v>
       </c>
       <c r="G17" t="n">
-        <v>5.97404173590969E-4</v>
+        <v>2.0756944545561E-6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.46448087431694E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
         <v>20.0</v>
@@ -1298,10 +1304,10 @@
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0459016393442623</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0103681234759619</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1309,25 +1315,25 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="F18" t="n">
-        <v>7.63597179579756E-6</v>
+        <v>8.86956258606943E-6</v>
       </c>
       <c r="G18" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>9.61482991365883E-8</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>0.00258960788016878</v>
       </c>
       <c r="I18" t="n">
         <v>20.0</v>
@@ -1336,13 +1342,13 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.213114754098361</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1353,25 +1359,25 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D19" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F19" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>0.032683238965917</v>
       </c>
       <c r="G19" t="n">
-        <v>7.97856280819595E-5</v>
+        <v>1.80791391376607E-5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.126229508196721</v>
+        <v>0.0158377327035288</v>
       </c>
       <c r="I19" t="n">
         <v>20.0</v>
@@ -1380,16 +1386,16 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.09672131147540983</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>0.005184061737980951</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0950819672131148</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>0.00691208231730794</v>
       </c>
     </row>
     <row r="20">
@@ -1400,7 +1406,7 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D20" t="n">
         <v>16.0</v>
@@ -1441,25 +1447,25 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E21" t="n">
         <v>5.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0586083640377196</v>
+        <v>0.00232438553073653</v>
       </c>
       <c r="G21" t="n">
-        <v>9.64416941005178E-5</v>
+        <v>8.11198387904296E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.00312851573511295</v>
       </c>
       <c r="I21" t="n">
         <v>20.0</v>
@@ -1468,16 +1474,16 @@
         <v>100.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.11311475409836066</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L21" t="n">
-        <v>0.018041064501878888</v>
+        <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.114754098360656</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0204462152282729</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -1485,25 +1491,25 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
       <c r="D22" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E22" t="n">
         <v>4.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.032683238965917</v>
+        <v>7.33124926812689E-6</v>
       </c>
       <c r="G22" t="n">
-        <v>1.80791391376607E-5</v>
+        <v>8.22091735956759E-6</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0158377327035288</v>
+        <v>0.00824471138467414</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -1512,13 +1518,13 @@
         <v>100.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09508196721311475</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006912082317307935</v>
+        <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0983606557377049</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -1529,25 +1535,25 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="E23" t="n">
         <v>3.0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.50779552135965E-6</v>
+        <v>7.63597179579756E-6</v>
       </c>
       <c r="G23" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>5.10853582139852E-6</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0427896637954987</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -1573,25 +1579,25 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D24" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="E24" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.47847829370824E-5</v>
+        <v>7.45701001273995E-6</v>
       </c>
       <c r="G24" t="n">
-        <v>7.25661236027677E-6</v>
+        <v>7.97856280819595E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.36518832027516E-4</v>
+        <v>0.126229508196721</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -1600,13 +1606,13 @@
         <v>100.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -1617,43 +1623,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J25" t="e">
-        <v>#NUM!</v>
+        <v>79</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.47847829370824E-5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.25661236027677E-6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.36518832027516E-4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
-      <c r="M25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N25" t="e">
-        <v>#NUM!</v>
+      <c r="M25" t="n">
+        <v>0.0819672131147541</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1661,43 +1667,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J26" t="e">
-        <v>#NUM!</v>
+        <v>115</v>
+      </c>
+      <c r="D26" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.07301348573946E-4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.84593196546353E-7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.00634808858158152</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.27704918032786885</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N26" t="e">
-        <v>#NUM!</v>
+        <v>0.018041064501878878</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.298360655737705</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0307179657323611</v>
       </c>
     </row>
     <row r="27">
@@ -1705,10 +1711,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1732,7 +1738,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -1749,10 +1755,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1793,10 +1799,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1837,10 +1843,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1864,7 +1870,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -1881,10 +1887,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1925,10 +1931,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1969,10 +1975,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -2013,10 +2019,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -2057,10 +2063,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -2101,10 +2107,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -2145,10 +2151,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2189,10 +2195,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2233,10 +2239,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2277,10 +2283,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2321,10 +2327,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2365,10 +2371,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2409,10 +2415,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -2453,10 +2459,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -2497,10 +2503,10 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D45" t="e">
         <v>#NUM!</v>
@@ -2541,10 +2547,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
         <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2585,10 +2591,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -2629,10 +2635,10 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2673,10 +2679,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2717,10 +2723,10 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -2744,7 +2750,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.13114754098360656</v>
+        <v>0.22950819672131148</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -2761,10 +2767,10 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -2788,7 +2794,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.13114754098360656</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -2805,10 +2811,10 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -2832,7 +2838,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -2849,10 +2855,10 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -2876,10 +2882,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5508196721311476</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L53" t="n">
-        <v>0.07540191611217636</v>
+        <v>0.0</v>
       </c>
       <c r="M53" t="e">
         <v>#NUM!</v>
@@ -2893,10 +2899,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -2920,10 +2926,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0</v>
+        <v>0.0484154238980037</v>
       </c>
       <c r="M54" t="e">
         <v>#NUM!</v>
@@ -2937,10 +2943,10 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -2964,7 +2970,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K55" t="n">
-        <v>0.26229508196721313</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L55" t="n">
         <v>0.0</v>
@@ -2981,10 +2987,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -3008,10 +3014,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.46885245901639344</v>
+        <v>0.26229508196721313</v>
       </c>
       <c r="L56" t="n">
-        <v>0.03110437042788568</v>
+        <v>0.0</v>
       </c>
       <c r="M56" t="e">
         <v>#NUM!</v>
@@ -3025,10 +3031,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -3052,10 +3058,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.36065573770491804</v>
+        <v>0.5016393442622951</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0</v>
+        <v>0.04899783993761723</v>
       </c>
       <c r="M57" t="e">
         <v>#NUM!</v>
@@ -3069,10 +3075,10 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -3096,7 +3102,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.36065573770491804</v>
       </c>
       <c r="L58" t="n">
         <v>0.0</v>
@@ -3113,10 +3119,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -3140,7 +3146,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -3157,10 +3163,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -3184,10 +3190,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6508196721311476</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L60" t="n">
-        <v>0.05521559815986503</v>
+        <v>0.0</v>
       </c>
       <c r="M60" t="e">
         <v>#NUM!</v>
@@ -3201,10 +3207,10 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -3228,10 +3234,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3114754098360656</v>
+        <v>0.6508196721311476</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0</v>
+        <v>0.020519107492370018</v>
       </c>
       <c r="M61" t="e">
         <v>#NUM!</v>
@@ -3245,10 +3251,10 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -3272,7 +3278,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.19672131147540983</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L62" t="n">
         <v>0.0</v>
@@ -3289,10 +3295,10 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -3316,7 +3322,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="L63" t="n">
         <v>0.0</v>
@@ -3333,10 +3339,10 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -3360,7 +3366,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L64" t="n">
         <v>0.0</v>
@@ -3377,10 +3383,10 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -3404,10 +3410,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4885245901639344</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L65" t="n">
-        <v>0.047512710643244034</v>
+        <v>0.0</v>
       </c>
       <c r="M65" t="e">
         <v>#NUM!</v>
@@ -3421,10 +3427,10 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -3448,15 +3454,59 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
+        <v>0.4786885245901639</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.04147249390384757</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" t="n">
         <v>0.09836065573770492</v>
       </c>
-      <c r="L66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M66" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N66" t="e">
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N67" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -3476,113 +3526,113 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>0.00264948356786914</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06674780108582E-6</v>
+        <v>4.85508434727297E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00442651694436194</v>
+        <v>2.77854959711031E-4</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.05901639344262295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.011462391783280344</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0573770491803279</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.0139317473048983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.68773015978005E-6</v>
+        <v>0.0610669681744784</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>8.11198387904296E-6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>5.51193654396454E-5</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -3591,57 +3641,57 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.15245901639344261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.02051910749237004</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.150819672131148</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0215829701181765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
         <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="n">
         <v>7.66181599492114E-6</v>
       </c>
       <c r="G4" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>2.06674780108582E-6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00706086939858773</v>
+        <v>0.00442651694436194</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11475409836065574</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.114754098360656</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3649,28 +3699,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>0.00526662032626969</v>
       </c>
       <c r="G5" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>5.05700902234169E-6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0140173036571462</v>
+        <v>2.77854959711031E-4</v>
       </c>
       <c r="I5" t="n">
         <v>60.0</v>
@@ -3679,13 +3729,13 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.01393174730489832</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3693,28 +3743,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="E6" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="F6" t="n">
-        <v>8.86956258606943E-6</v>
+        <v>3.82704214845158E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>1.25365254515941E-5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00258960788016878</v>
+        <v>0.00819672131147542</v>
       </c>
       <c r="I6" t="n">
         <v>60.0</v>
@@ -3723,42 +3773,42 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.21311475409836064</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.214754098360656</v>
+        <v>0.0360655737704918</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00518406173798096</v>
+        <v>0.0103681234759619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.82704214845158E-5</v>
+        <v>7.50779552135965E-6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.25365254515941E-5</v>
+        <v>1.27649430555578E-5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00819672131147542</v>
+        <v>0.0427896637954987</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -3767,13 +3817,13 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03770491803278689</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.015552185213942846</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3781,28 +3831,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00264948356786914</v>
+        <v>0.211145766579027</v>
       </c>
       <c r="G8" t="n">
-        <v>4.85508434727297E-6</v>
+        <v>9.61482991365883E-8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>3.12480110971832E-4</v>
       </c>
       <c r="I8" t="n">
         <v>60.0</v>
@@ -3811,42 +3861,42 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.060655737704918035</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L8" t="n">
-        <v>0.011064730454271358</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0557377049180328</v>
+        <v>0.283606557377049</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0138241646346159</v>
+        <v>0.00791878510720735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
         <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>7.66181599492114E-6</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5845282503788E-5</v>
+        <v>7.30630227306503E-6</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0198402813041937</v>
+        <v>0.00706086939858773</v>
       </c>
       <c r="I9" t="n">
         <v>60.0</v>
@@ -3855,13 +3905,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.114754098360656</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3869,72 +3919,72 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.07301348573946E-4</v>
+        <v>7.33124926812689E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.84593196546353E-7</v>
+        <v>1.26884414641834E-5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00634808858158152</v>
+        <v>0.0101139205334815</v>
       </c>
       <c r="I10" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L10" t="n">
-        <v>0.023183828891362206</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.285245901639344</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0291211204250803</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" t="n">
         <v>2.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00526662032626969</v>
+        <v>0.295197089774301</v>
       </c>
       <c r="G11" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>5.97404173590969E-4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>5.46448087431694E-4</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -3943,13 +3993,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0639344262295082</v>
+        <v>0.04590163934426229</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005184061737980951</v>
+        <v>0.006912082317307932</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3960,10 +4010,10 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
         <v>23.0</v>
@@ -4001,28 +4051,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.211145766579027</v>
+        <v>1.20522706918027E-5</v>
       </c>
       <c r="G13" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.12480110971832E-4</v>
+        <v>0.0114754098360656</v>
       </c>
       <c r="I13" t="n">
         <v>40.0</v>
@@ -4031,42 +4081,42 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.286885245901639</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0159315625542221</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.20522706918027E-5</v>
+        <v>7.73976893251139E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>1.5845282503788E-5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0114754098360656</v>
+        <v>0.0198402813041937</v>
       </c>
       <c r="I14" t="n">
         <v>40.0</v>
@@ -4075,13 +4125,13 @@
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -4089,28 +4139,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D15" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E15" t="n">
         <v>5.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00232438553073653</v>
+        <v>0.0586083640377196</v>
       </c>
       <c r="G15" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>9.64416941005178E-5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00312851573511295</v>
+        <v>0.00213660882812275</v>
       </c>
       <c r="I15" t="n">
         <v>40.0</v>
@@ -4119,86 +4169,86 @@
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.12131147540983607</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>0.013824164634615867</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.104918032786885</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>0.0158375702144147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D16" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0610669681744784</v>
+        <v>7.73976893251139E-6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>5.10853582139852E-6</v>
       </c>
       <c r="H16" t="n">
-        <v>5.51193654396454E-5</v>
+        <v>0.0140173036571462</v>
       </c>
       <c r="I16" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.14754098360655737</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L16" t="n">
-        <v>0.017280205793269828</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.157377049180328</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0207362469519238</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D17" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.295197089774301</v>
+        <v>7.68773015978005E-6</v>
       </c>
       <c r="G17" t="n">
-        <v>5.97404173590969E-4</v>
+        <v>2.0756944545561E-6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.46448087431694E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
         <v>20.0</v>
@@ -4213,36 +4263,36 @@
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0459016393442623</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0103681234759619</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="F18" t="n">
-        <v>7.63597179579756E-6</v>
+        <v>8.86956258606943E-6</v>
       </c>
       <c r="G18" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>9.61482991365883E-8</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>0.00258960788016878</v>
       </c>
       <c r="I18" t="n">
         <v>20.0</v>
@@ -4251,42 +4301,42 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.222950819672131</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0</v>
+        <v>0.0221294609085427</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D19" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F19" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>0.032683238965917</v>
       </c>
       <c r="G19" t="n">
-        <v>7.97856280819595E-5</v>
+        <v>1.80791391376607E-5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.126229508196721</v>
+        <v>0.0158377327035288</v>
       </c>
       <c r="I19" t="n">
         <v>20.0</v>
@@ -4295,13 +4345,13 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.09672131147540983</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>0.005184061737980951</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0983606557377049</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -4315,7 +4365,7 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D20" t="n">
         <v>16.0</v>
@@ -4353,28 +4403,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E21" t="n">
         <v>5.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0586083640377196</v>
+        <v>0.00232438553073653</v>
       </c>
       <c r="G21" t="n">
-        <v>9.64416941005178E-5</v>
+        <v>8.11198387904296E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.00312851573511295</v>
       </c>
       <c r="I21" t="n">
         <v>20.0</v>
@@ -4383,27 +4433,27 @@
         <v>100.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.11311475409836066</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L21" t="n">
-        <v>0.018041064501878888</v>
+        <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.118032786885246</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0150645341552899</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D22" t="n">
         <v>4.0</v>
@@ -4441,13 +4491,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D23" t="n">
         <v>23.0</v>
@@ -4485,13 +4535,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="n">
         <v>3.0</v>
@@ -4521,21 +4571,21 @@
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0540983606557377</v>
+        <v>0.0475409836065574</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00791878510720735</v>
+        <v>0.00930567560979585</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25" t="n">
         <v>22.0</v>
@@ -4559,10 +4609,10 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.04590163934426229</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>0.006912082317307932</v>
       </c>
       <c r="M25" t="n">
         <v>0.0327868852459016</v>
@@ -4573,43 +4623,43 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D26" t="n">
-        <v>42.0</v>
+        <v>14.0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.79208920699832E-6</v>
+        <v>7.33124926812689E-6</v>
       </c>
       <c r="G26" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>8.22091735956759E-6</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>0.00824471138467414</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4617,25 +4667,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D27" t="n">
-        <v>28.0</v>
+        <v>42.0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F27" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>7.79208920699832E-6</v>
       </c>
       <c r="G27" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>5.13445780757726E-6</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
@@ -4647,13 +4697,13 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -4661,28 +4711,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" t="n">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.032683238965917</v>
+        <v>7.63597179579756E-6</v>
       </c>
       <c r="G28" t="n">
-        <v>1.80791391376607E-5</v>
+        <v>5.10853582139852E-6</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0158377327035288</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4691,13 +4741,13 @@
         <v>100.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09508196721311475</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L28" t="n">
-        <v>0.006912082317307935</v>
+        <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0983606557377049</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -4705,40 +4755,40 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D29" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="E29" t="n">
         <v>2.0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.10934429200501E-5</v>
+        <v>7.45701001273995E-6</v>
       </c>
       <c r="G29" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>7.97856280819595E-5</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00233398166157266</v>
+        <v>0.126229508196721</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0639344262295082</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005184061737980951</v>
+        <v>0.0</v>
       </c>
       <c r="M29" t="n">
         <v>0.0327868852459016</v>
@@ -4749,25 +4799,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
         <v>119</v>
       </c>
       <c r="D30" t="n">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
       <c r="E30" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F30" t="n">
-        <v>7.81835524957289E-6</v>
+        <v>7.45701001273995E-6</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>1.27649430555578E-5</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
@@ -4779,13 +4829,13 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -4793,28 +4843,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D31" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.89757864438267E-6</v>
+        <v>2.10934429200501E-5</v>
       </c>
       <c r="G31" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>5.05700902234169E-6</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0307470970207998</v>
+        <v>0.00233398166157266</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4823,13 +4873,13 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>0.01393174730489832</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -4837,28 +4887,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D32" t="n">
-        <v>23.0</v>
+        <v>42.0</v>
       </c>
       <c r="E32" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F32" t="n">
         <v>7.81835524957289E-6</v>
       </c>
       <c r="G32" t="n">
-        <v>3.93371172920246E-4</v>
+        <v>2.0756944545561E-6</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0203619779440649</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4867,13 +4917,13 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -4881,28 +4931,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0326867266558607</v>
+        <v>7.89757864438267E-6</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00673965343685271</v>
+        <v>7.30630227306503E-6</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.0307470970207998</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4911,13 +4961,13 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -4925,28 +4975,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="D34" t="n">
         <v>23.0</v>
       </c>
       <c r="E34" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.0122095203046E-6</v>
+        <v>7.81835524957289E-6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.10014838189947E-4</v>
+        <v>3.93371172920246E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0635760891435361</v>
+        <v>0.0203619779440649</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -4955,13 +5005,13 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.13114754098360656</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.131147540983607</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -4969,28 +5019,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0830974642385662</v>
+        <v>0.0326867266558607</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00121942728807241</v>
+        <v>0.00673965343685271</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00961378160600166</v>
+        <v>0.00213660882812275</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -4999,13 +5049,13 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -5013,28 +5063,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D36" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="E36" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00797896269702576</v>
+        <v>7.0122095203046E-6</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00121942728807241</v>
+        <v>1.10014838189947E-4</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0158377327035288</v>
+        <v>0.0635760891435361</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -5043,13 +5093,13 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.13114754098360656</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.131147540983607</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -5057,28 +5107,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F37" t="n">
-        <v>7.13357177098942E-6</v>
+        <v>0.0830974642385662</v>
       </c>
       <c r="G37" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>0.00121942728807241</v>
       </c>
       <c r="H37" t="n">
-        <v>0.138251366120219</v>
+        <v>0.00961378160600166</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -5087,42 +5137,42 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0524590163934426</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0</v>
+        <v>0.0103681234759619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>127</v>
       </c>
       <c r="D38" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.88728054374541E-6</v>
+        <v>0.00797896269702576</v>
       </c>
       <c r="G38" t="n">
-        <v>1.238605095624E-5</v>
+        <v>0.00121942728807241</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>0.0158377327035288</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -5131,13 +5181,13 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -5145,28 +5195,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D39" t="n">
         <v>23.0</v>
       </c>
       <c r="E39" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.76589381363557E-6</v>
+        <v>7.13357177098942E-6</v>
       </c>
       <c r="G39" t="n">
-        <v>4.86510393631137E-5</v>
+        <v>5.05700902234169E-6</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0110596879576118</v>
+        <v>0.138251366120219</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -5175,13 +5225,13 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.16393442622950818</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.163934426229508</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -5189,43 +5239,43 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D40" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F40" t="n">
-        <v>7.50779552135965E-6</v>
+        <v>5.88728054374541E-6</v>
       </c>
       <c r="G40" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>1.238605095624E-5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0427896637954987</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -5233,43 +5283,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D41" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.47847829370824E-5</v>
+        <v>7.76589381363557E-6</v>
       </c>
       <c r="G41" t="n">
-        <v>7.25661236027677E-6</v>
+        <v>4.86510393631137E-5</v>
       </c>
       <c r="H41" t="n">
-        <v>3.36518832027516E-4</v>
+        <v>0.0110596879576118</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.16393442622950818</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.163934426229508</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -5277,43 +5327,43 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D42" t="n">
         <v>16.0</v>
       </c>
       <c r="E42" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F42" t="n">
-        <v>7.20719365583693E-6</v>
+        <v>1.47847829370824E-5</v>
       </c>
       <c r="G42" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>7.25661236027677E-6</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0497267759562841</v>
+        <v>3.36518832027516E-4</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -5321,28 +5371,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D43" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="E43" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.29607358754569E-5</v>
+        <v>7.20719365583693E-6</v>
       </c>
       <c r="G43" t="n">
-        <v>9.32638501624906E-6</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0153924317584233</v>
+        <v>0.0497267759562841</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -5351,42 +5401,42 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.26229508196721313</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.268852459016393</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0158375702144147</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D44" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0883476674312078</v>
+        <v>6.29607358754569E-5</v>
       </c>
       <c r="G44" t="n">
-        <v>1.20475347335272E-4</v>
+        <v>9.32638501624906E-6</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0165575838015097</v>
+        <v>0.0153924317584233</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -5395,115 +5445,115 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.26229508196721313</v>
       </c>
       <c r="L44" t="n">
         <v>0.0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.263934426229508</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0</v>
+        <v>0.00518406173798094</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J45" t="e">
-        <v>#NUM!</v>
+        <v>115</v>
+      </c>
+      <c r="D45" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.07301348573946E-4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.84593196546353E-7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.00634808858158152</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>100.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.27704918032786885</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N45" t="e">
-        <v>#NUM!</v>
+        <v>0.018041064501878878</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.275409836065574</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0129313219302724</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E46" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F46" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G46" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H46" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I46" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J46" t="e">
-        <v>#NUM!</v>
+        <v>112</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0883476674312078</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.20475347335272E-4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0165575838015097</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
       </c>
-      <c r="M46" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N46" t="e">
-        <v>#NUM!</v>
+      <c r="M46" t="n">
+        <v>0.0819672131147541</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -5541,13 +5591,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -5571,7 +5621,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
@@ -5585,13 +5635,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -5632,10 +5682,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -5676,10 +5726,10 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -5720,10 +5770,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -5764,10 +5814,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -5808,10 +5858,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -5852,10 +5902,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5893,13 +5943,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -5940,10 +5990,10 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -5981,13 +6031,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -6028,10 +6078,10 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -6055,7 +6105,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.13114754098360656</v>
+        <v>0.22950819672131148</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -6072,10 +6122,10 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -6099,7 +6149,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.13114754098360656</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -6116,10 +6166,10 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -6143,7 +6193,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L61" t="n">
         <v>0.0</v>
@@ -6157,13 +6207,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -6187,10 +6237,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5508196721311476</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L62" t="n">
-        <v>0.07540191611217636</v>
+        <v>0.0</v>
       </c>
       <c r="M62" t="e">
         <v>#NUM!</v>
@@ -6201,13 +6251,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -6231,10 +6281,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0</v>
+        <v>0.0484154238980037</v>
       </c>
       <c r="M63" t="e">
         <v>#NUM!</v>
@@ -6245,13 +6295,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -6275,10 +6325,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.46885245901639344</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L64" t="n">
-        <v>0.03110437042788568</v>
+        <v>0.0</v>
       </c>
       <c r="M64" t="e">
         <v>#NUM!</v>
@@ -6289,13 +6339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -6319,10 +6369,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.36065573770491804</v>
+        <v>0.5016393442622951</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0</v>
+        <v>0.04899783993761723</v>
       </c>
       <c r="M65" t="e">
         <v>#NUM!</v>
@@ -6333,13 +6383,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -6363,7 +6413,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.36065573770491804</v>
       </c>
       <c r="L66" t="n">
         <v>0.0</v>
@@ -6380,10 +6430,10 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -6407,7 +6457,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L67" t="n">
         <v>0.0</v>
@@ -6421,13 +6471,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D68" t="e">
         <v>#NUM!</v>
@@ -6451,10 +6501,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6508196721311476</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L68" t="n">
-        <v>0.05521559815986503</v>
+        <v>0.0</v>
       </c>
       <c r="M68" t="e">
         <v>#NUM!</v>
@@ -6465,13 +6515,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>
@@ -6495,10 +6545,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K69" t="n">
-        <v>0.3114754098360656</v>
+        <v>0.6508196721311476</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0</v>
+        <v>0.020519107492370018</v>
       </c>
       <c r="M69" t="e">
         <v>#NUM!</v>
@@ -6509,13 +6559,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D70" t="e">
         <v>#NUM!</v>
@@ -6539,7 +6589,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K70" t="n">
-        <v>0.19672131147540983</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L70" t="n">
         <v>0.0</v>
@@ -6553,13 +6603,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D71" t="e">
         <v>#NUM!</v>
@@ -6583,7 +6633,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
@@ -6597,13 +6647,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="D72" t="e">
         <v>#NUM!</v>
@@ -6627,7 +6677,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K72" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L72" t="n">
         <v>0.0</v>
@@ -6641,13 +6691,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D73" t="e">
         <v>#NUM!</v>
@@ -6671,10 +6721,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4885245901639344</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L73" t="n">
-        <v>0.047512710643244034</v>
+        <v>0.0</v>
       </c>
       <c r="M73" t="e">
         <v>#NUM!</v>
@@ -6685,13 +6735,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D74" t="e">
         <v>#NUM!</v>
@@ -6715,15 +6765,59 @@
         <v>#NUM!</v>
       </c>
       <c r="K74" t="n">
+        <v>0.4786885245901639</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.04147249390384757</v>
+      </c>
+      <c r="M74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N74" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K75" t="n">
         <v>0.09836065573770492</v>
       </c>
-      <c r="L74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M74" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N74" t="e">
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N75" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_proximal proliferative (PP, magnoid).xlsx
+++ b/output/LUAD_statistics_proximal proliferative (PP, magnoid).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="169">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,19 +54,46 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>24</t>
+    <t>55</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t>35</t>
@@ -75,72 +102,48 @@
     <t>40</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>65</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -183,9 +186,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -252,126 +252,129 @@
     <t>63</t>
   </si>
   <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
     <t>Mutation SETD2</t>
   </si>
   <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation TP53</t>
+    <t>Pattern KRAS_and_STK11</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
   </si>
   <si>
     <t>Deletion ARID1B</t>
   </si>
   <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
-    <t>Pattern KRAS_and_STK11</t>
+    <t>Pattern XOR_RIT1</t>
+  </si>
+  <si>
+    <t>Deletion KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation RBM10</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Pattern XOR_KEAP1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Pattern XOR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Mutation TSC1</t>
+  </si>
+  <si>
+    <t>Mutation CCND1</t>
+  </si>
+  <si>
+    <t>Amplification PIK3CA</t>
+  </si>
+  <si>
+    <t>Deletion ROS1</t>
+  </si>
+  <si>
+    <t>Pattern OR_PIK3CA</t>
+  </si>
+  <si>
+    <t>Amplification NFE2L2</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
   </si>
   <si>
     <t>Amplification ATM</t>
   </si>
   <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation RBM10</t>
-  </si>
-  <si>
-    <t>Pattern XOR_KEAP1</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Pattern XOR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Deletion ROS1</t>
-  </si>
-  <si>
-    <t>Mutation CCND1</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
+    <t>Pattern XOR_CCND1</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Pattern XOR_ROS1</t>
+  </si>
+  <si>
+    <t>Deletion RB1</t>
   </si>
   <si>
     <t>Amplification ERBB2</t>
   </si>
   <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation TSC1</t>
-  </si>
-  <si>
-    <t>Pattern OR_PIK3CA</t>
-  </si>
-  <si>
-    <t>Pattern XOR_CCND1</t>
-  </si>
-  <si>
-    <t>Amplification NFE2L2</t>
-  </si>
-  <si>
-    <t>Amplification PIK3CA</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Deletion RB1</t>
+    <t>Deletion ARID2</t>
   </si>
   <si>
     <t>Mutation CDKN2A</t>
   </si>
   <si>
-    <t>Pattern XOR_ROS1</t>
-  </si>
-  <si>
-    <t>Deletion ARID2</t>
-  </si>
-  <si>
-    <t>Deletion KEAP1</t>
-  </si>
-  <si>
-    <t>Pattern XOR_RIT1</t>
-  </si>
-  <si>
     <t>Amplification AKT1</t>
   </si>
   <si>
     <t>Amplification MDM2</t>
   </si>
   <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
     <t>Deletion PTEN</t>
   </si>
   <si>
@@ -402,9 +405,6 @@
     <t>Mutation PIK3R1</t>
   </si>
   <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
     <t>Mutation RIT1</t>
   </si>
   <si>
@@ -492,28 +492,34 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>74</t>
   </si>
   <si>
-    <t>73</t>
+    <t>67</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
     <t>72</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
   </si>
 </sst>
 </file>
@@ -614,40 +620,40 @@
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00264948356786914</v>
+        <v>6.58760627071679E-52</v>
       </c>
       <c r="G2" t="n">
-        <v>4.85508434727297E-6</v>
+        <v>1.20635798278693E-50</v>
       </c>
       <c r="H2" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>0.00706086939858773</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05901639344262295</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="L2" t="n">
-        <v>0.011462391783280344</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0524590163934426</v>
+        <v>0.114754098360656</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0169310747375188</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -655,43 +661,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610669681744784</v>
+        <v>4.06980485703034E-52</v>
       </c>
       <c r="G3" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>9.92356836196879E-59</v>
       </c>
       <c r="H3" t="n">
-        <v>5.51193654396454E-5</v>
+        <v>0.00442651694436194</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15245901639344261</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02051910749237004</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.150819672131148</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0229247835665607</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -699,43 +705,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>3.92525617393756E-9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06674780108582E-6</v>
+        <v>5.47933095132662E-52</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00442651694436194</v>
+        <v>1.68388229104376E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>69.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.15245901639344261</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.019008226372596814</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.168852459016393</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0219261231122829</v>
       </c>
     </row>
     <row r="5">
@@ -743,43 +749,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00526662032626969</v>
+        <v>2.64711688875406E-17</v>
       </c>
       <c r="G5" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>4.23724178465337E-52</v>
       </c>
       <c r="H5" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.054098360655737705</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01393174730489832</v>
+        <v>0.013496272169648599</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0573770491803279</v>
+        <v>0.0508196721311475</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0115919144456811</v>
+        <v>0.014354016979851</v>
       </c>
     </row>
     <row r="6">
@@ -787,40 +793,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.82704214845158E-5</v>
+        <v>3.08260397642196E-52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.25365254515941E-5</v>
+        <v>3.05171715472049E-57</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00819672131147542</v>
+        <v>0.0101139205334815</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -831,28 +837,28 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E7" t="n">
         <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.50779552135965E-6</v>
+        <v>3.01596607125988E-52</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>7.31736417956811E-57</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0427896637954987</v>
+        <v>0.0492081133648235</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -878,40 +884,40 @@
         <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.211145766579027</v>
+        <v>1.37917178652855E-49</v>
       </c>
       <c r="G8" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>6.61932455124378E-51</v>
       </c>
       <c r="H8" t="n">
-        <v>3.12480110971832E-4</v>
+        <v>0.0153005464480874</v>
       </c>
       <c r="I8" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.283606557377049</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0155521852139428</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -919,43 +925,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>6.17322008796128E-44</v>
       </c>
       <c r="G9" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>8.53230067226915E-50</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00706086939858773</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>60.0</v>
+        <v>52.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.11475409836065574</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.114754098360656</v>
+        <v>0.0360655737704918</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>0.0103681234759619</v>
       </c>
     </row>
     <row r="10">
@@ -963,28 +969,28 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="E10" t="n">
         <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.33124926812689E-6</v>
+        <v>3.31973020865983E-52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.26884414641834E-5</v>
+        <v>9.67721590310041E-56</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0101139205334815</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
@@ -1010,40 +1016,40 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" t="n">
         <v>2.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.295197089774301</v>
+        <v>1.38658722619405E-16</v>
       </c>
       <c r="G11" t="n">
-        <v>5.97404173590969E-4</v>
+        <v>3.47887192773137E-43</v>
       </c>
       <c r="H11" t="n">
-        <v>5.46448087431694E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0</v>
+        <v>49.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04590163934426229</v>
+        <v>0.0639344262295082</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006912082317307932</v>
+        <v>0.005184061737980951</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0475409836065574</v>
+        <v>0.0622950819672131</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00518406173798095</v>
+        <v>0.00691208231730794</v>
       </c>
     </row>
     <row r="12">
@@ -1051,40 +1057,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.61019742613133E-6</v>
+        <v>3.71618970784061E-52</v>
       </c>
       <c r="G12" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>1.7345317396077E-49</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>0.00442651694436194</v>
       </c>
       <c r="I12" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1095,40 +1101,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.20522706918027E-5</v>
+        <v>3.5951801382079E-52</v>
       </c>
       <c r="G13" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>5.51534565163794E-58</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0114754098360656</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -1139,40 +1145,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D14" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>1.62463514988572E-48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5845282503788E-5</v>
+        <v>2.38270621233751E-51</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0198402813041937</v>
+        <v>0.0108091458899344</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.213114754098361</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1186,40 +1192,40 @@
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0586083640377196</v>
+        <v>3.33938816146807E-37</v>
       </c>
       <c r="G15" t="n">
-        <v>9.64416941005178E-5</v>
+        <v>1.25946736844534E-50</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.0194628519111317</v>
       </c>
       <c r="I15" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.12131147540983607</v>
+        <v>0.2836065573770492</v>
       </c>
       <c r="L15" t="n">
-        <v>0.013824164634615867</v>
+        <v>0.035456017918050996</v>
       </c>
       <c r="M15" t="n">
-        <v>0.111475409836066</v>
+        <v>0.298360655737705</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0241922881105778</v>
+        <v>0.0253966121062781</v>
       </c>
     </row>
     <row r="16">
@@ -1227,40 +1233,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" t="n">
         <v>22.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>2.80292181729026E-52</v>
       </c>
       <c r="G16" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>3.00993796663873E-54</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0140173036571462</v>
+        <v>0.0427896637954987</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1271,43 +1277,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E17" t="n">
         <v>22.0</v>
       </c>
-      <c r="E17" t="n">
-        <v>3.0</v>
-      </c>
       <c r="F17" t="n">
-        <v>7.68773015978005E-6</v>
+        <v>0.0264657089226563</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>1.07735415728373E-51</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>3.12480110971832E-4</v>
       </c>
       <c r="I17" t="n">
-        <v>20.0</v>
+        <v>38.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.280327868852459</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>0.00518406173798096</v>
       </c>
     </row>
     <row r="18">
@@ -1315,40 +1321,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="E18" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" t="n">
-        <v>8.86956258606943E-6</v>
+        <v>2.15152998511875E-52</v>
       </c>
       <c r="G18" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>3.9402702150327E-53</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00258960788016878</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J18" t="n">
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.21311475409836064</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.213114754098361</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1359,43 +1365,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.032683238965917</v>
+        <v>3.99238134509494E-14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.80791391376607E-5</v>
+        <v>6.33509035533591E-44</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0158377327035288</v>
+        <v>3.21222521480811E-4</v>
       </c>
       <c r="I19" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J19" t="n">
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09672131147540983</v>
+        <v>0.12131147540983607</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005184061737980951</v>
+        <v>0.0207362469519238</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0950819672131148</v>
+        <v>0.119672131147541</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00691208231730794</v>
+        <v>0.0190082263725968</v>
       </c>
     </row>
     <row r="20">
@@ -1406,34 +1412,34 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.2396445305271E-5</v>
+        <v>0.351661886869928</v>
       </c>
       <c r="G20" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>1.6377608916468E-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>0.0650273224043714</v>
       </c>
       <c r="I20" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J20" t="n">
         <v>100.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.04262295081967213</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>0.013824164634615865</v>
       </c>
       <c r="M20" t="n">
         <v>0.0491803278688525</v>
@@ -1450,7 +1456,7 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21" t="n">
         <v>10.0</v>
@@ -1459,16 +1465,16 @@
         <v>5.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00232438553073653</v>
+        <v>1.01275238485383E-33</v>
       </c>
       <c r="G21" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>1.14478008279796E-44</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00312851573511295</v>
+        <v>0.00184261710124157</v>
       </c>
       <c r="I21" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J21" t="n">
         <v>100.0</v>
@@ -1491,40 +1497,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F22" t="n">
-        <v>7.33124926812689E-6</v>
+        <v>5.77715610116702E-51</v>
       </c>
       <c r="G22" t="n">
-        <v>8.22091735956759E-6</v>
+        <v>2.76189896281087E-48</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00824471138467414</v>
+        <v>7.34222906241853E-4</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="J22" t="n">
         <v>100.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -1535,43 +1541,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" t="n">
-        <v>25.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.63597179579756E-6</v>
+        <v>0.311000222627518</v>
       </c>
       <c r="G23" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>4.18684617808435E-25</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>0.01878874399977</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="J23" t="n">
         <v>100.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.09672131147540983</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>0.005184061737980951</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0852459016393443</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0</v>
+        <v>0.0150645341552899</v>
       </c>
     </row>
     <row r="24">
@@ -1579,43 +1585,43 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" t="n">
         <v>2.0</v>
       </c>
       <c r="F24" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>0.47829682112336</v>
       </c>
       <c r="G24" t="n">
-        <v>7.97856280819595E-5</v>
+        <v>2.76964455514074E-11</v>
       </c>
       <c r="H24" t="n">
-        <v>0.126229508196721</v>
+        <v>5.46448087431694E-4</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="J24" t="n">
         <v>100.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0459016393442623</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0</v>
+        <v>0.00691208231730793</v>
       </c>
     </row>
     <row r="25">
@@ -1623,40 +1629,40 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
       <c r="D25" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.47847829370824E-5</v>
+        <v>2.44225677947645E-52</v>
       </c>
       <c r="G25" t="n">
-        <v>7.25661236027677E-6</v>
+        <v>5.15176846348012E-49</v>
       </c>
       <c r="H25" t="n">
-        <v>3.36518832027516E-4</v>
+        <v>0.126229508196721</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="J25" t="n">
         <v>100.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -1667,43 +1673,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="E26" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.07301348573946E-4</v>
+        <v>3.3152204981934E-52</v>
       </c>
       <c r="G26" t="n">
-        <v>3.84593196546353E-7</v>
+        <v>1.30949268988867E-57</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00634808858158152</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="J26" t="n">
         <v>100.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.27704918032786885</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L26" t="n">
-        <v>0.018041064501878878</v>
+        <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.298360655737705</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0307179657323611</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1711,43 +1717,43 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J27" t="e">
-        <v>#NUM!</v>
+        <v>117</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.49817916753345E-52</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.26887144801693E-55</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N27" t="e">
-        <v>#NUM!</v>
+      <c r="M27" t="n">
+        <v>0.0491803278688525</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1755,10 +1761,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1799,10 +1805,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1843,10 +1849,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1887,10 +1893,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1914,7 +1920,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.19672131147540983</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
@@ -1931,10 +1937,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1958,7 +1964,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -1975,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
         <v>120</v>
@@ -2002,7 +2008,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
@@ -2019,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>121</v>
@@ -2046,7 +2052,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -2063,7 +2069,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
         <v>122</v>
@@ -2107,7 +2113,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
         <v>123</v>
@@ -2134,7 +2140,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
@@ -2151,7 +2157,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
         <v>124</v>
@@ -2178,7 +2184,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.16393442622950818</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -2195,7 +2201,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
         <v>125</v>
@@ -2222,7 +2228,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.16393442622950818</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -2239,10 +2245,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2266,7 +2272,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -2283,10 +2289,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2327,10 +2333,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2354,7 +2360,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -2371,10 +2377,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2398,7 +2404,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.13114754098360656</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -2415,10 +2421,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -2442,7 +2448,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.13114754098360656</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
@@ -2459,7 +2465,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
         <v>128</v>
@@ -2486,7 +2492,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L44" t="n">
         <v>0.0</v>
@@ -2503,7 +2509,7 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
         <v>129</v>
@@ -2547,7 +2553,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
@@ -2591,7 +2597,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
         <v>130</v>
@@ -2635,10 +2641,10 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2679,10 +2685,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2723,10 +2729,10 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -2767,7 +2773,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
         <v>131</v>
@@ -2811,7 +2817,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
         <v>132</v>
@@ -2855,7 +2861,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>133</v>
@@ -2899,7 +2905,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
         <v>134</v>
@@ -2926,10 +2932,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5491803278688525</v>
+        <v>0.5672131147540984</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0484154238980037</v>
+        <v>0.045193602465869585</v>
       </c>
       <c r="M54" t="e">
         <v>#NUM!</v>
@@ -2943,7 +2949,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
         <v>135</v>
@@ -2987,10 +2993,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -3031,7 +3037,7 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
         <v>136</v>
@@ -3058,10 +3064,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5016393442622951</v>
+        <v>0.45901639344262296</v>
       </c>
       <c r="L57" t="n">
-        <v>0.04899783993761723</v>
+        <v>0.0</v>
       </c>
       <c r="M57" t="e">
         <v>#NUM!</v>
@@ -3075,7 +3081,7 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
         <v>137</v>
@@ -3119,7 +3125,7 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
         <v>138</v>
@@ -3163,7 +3169,7 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
         <v>139</v>
@@ -3207,7 +3213,7 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
         <v>140</v>
@@ -3234,10 +3240,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6508196721311476</v>
+        <v>0.6540983606557377</v>
       </c>
       <c r="L61" t="n">
-        <v>0.020519107492370018</v>
+        <v>0.07143646270977487</v>
       </c>
       <c r="M61" t="e">
         <v>#NUM!</v>
@@ -3251,7 +3257,7 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
         <v>141</v>
@@ -3295,7 +3301,7 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
         <v>142</v>
@@ -3339,7 +3345,7 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>143</v>
@@ -3383,10 +3389,10 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -3427,7 +3433,7 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>144</v>
@@ -3454,10 +3460,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4786885245901639</v>
+        <v>0.46885245901639344</v>
       </c>
       <c r="L66" t="n">
-        <v>0.04147249390384757</v>
+        <v>0.03110437042788568</v>
       </c>
       <c r="M66" t="e">
         <v>#NUM!</v>
@@ -3471,7 +3477,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
         <v>145</v>
@@ -3567,251 +3573,251 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00264948356786914</v>
+        <v>6.58760627071679E-52</v>
       </c>
       <c r="G2" t="n">
-        <v>4.85508434727297E-6</v>
+        <v>1.20635798278693E-50</v>
       </c>
       <c r="H2" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>0.00706086939858773</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05901639344262295</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="L2" t="n">
-        <v>0.011462391783280344</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0573770491803279</v>
+        <v>0.114754098360656</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0139317473048983</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610669681744784</v>
+        <v>4.06980485703034E-52</v>
       </c>
       <c r="G3" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>9.92356836196879E-59</v>
       </c>
       <c r="H3" t="n">
-        <v>5.51193654396454E-5</v>
+        <v>0.00442651694436194</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15245901639344261</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02051910749237004</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.150819672131148</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0215829701181765</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>3.92525617393756E-9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06674780108582E-6</v>
+        <v>5.47933095132662E-52</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00442651694436194</v>
+        <v>1.68388229104376E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>69.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.15245901639344261</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.019008226372596814</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.150819672131148</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0169310747375188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00526662032626969</v>
+        <v>2.64711688875406E-17</v>
       </c>
       <c r="G5" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>4.23724178465337E-52</v>
       </c>
       <c r="H5" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.054098360655737705</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01393174730489832</v>
+        <v>0.013496272169648599</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0639344262295082</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0163021135411763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.82704214845158E-5</v>
+        <v>3.08260397642196E-52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.25365254515941E-5</v>
+        <v>3.05171715472049E-57</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00819672131147542</v>
+        <v>0.0101139205334815</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0360655737704918</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0103681234759619</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E7" t="n">
         <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.50779552135965E-6</v>
+        <v>3.01596607125988E-52</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>7.31736417956811E-57</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0427896637954987</v>
+        <v>0.0492081133648235</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -3831,87 +3837,87 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.211145766579027</v>
+        <v>1.37917178652855E-49</v>
       </c>
       <c r="G8" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>6.61932455124378E-51</v>
       </c>
       <c r="H8" t="n">
-        <v>3.12480110971832E-4</v>
+        <v>0.0153005464480874</v>
       </c>
       <c r="I8" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.283606557377049</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00791878510720735</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>6.17322008796128E-44</v>
       </c>
       <c r="G9" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>8.53230067226915E-50</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00706086939858773</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>60.0</v>
+        <v>52.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.11475409836065574</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.114754098360656</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3919,31 +3925,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="E10" t="n">
         <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.33124926812689E-6</v>
+        <v>3.31973020865983E-52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.26884414641834E-5</v>
+        <v>9.67721590310041E-56</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0101139205334815</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
@@ -3963,87 +3969,87 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" t="n">
         <v>2.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.295197089774301</v>
+        <v>1.38658722619405E-16</v>
       </c>
       <c r="G11" t="n">
-        <v>5.97404173590969E-4</v>
+        <v>3.47887192773137E-43</v>
       </c>
       <c r="H11" t="n">
-        <v>5.46448087431694E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0</v>
+        <v>49.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04590163934426229</v>
+        <v>0.0639344262295082</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006912082317307932</v>
+        <v>0.005184061737980951</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0639344262295082</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>0.00518406173798095</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.61019742613133E-6</v>
+        <v>3.71618970784061E-52</v>
       </c>
       <c r="G12" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>1.7345317396077E-49</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>0.00442651694436194</v>
       </c>
       <c r="I12" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -4051,43 +4057,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.20522706918027E-5</v>
+        <v>3.5951801382079E-52</v>
       </c>
       <c r="G13" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>5.51534565163794E-58</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0114754098360656</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -4095,43 +4101,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D14" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>1.62463514988572E-48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5845282503788E-5</v>
+        <v>2.38270621233751E-51</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0198402813041937</v>
+        <v>0.0108091458899344</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.213114754098361</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -4139,87 +4145,87 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0586083640377196</v>
+        <v>3.33938816146807E-37</v>
       </c>
       <c r="G15" t="n">
-        <v>9.64416941005178E-5</v>
+        <v>1.25946736844534E-50</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.0194628519111317</v>
       </c>
       <c r="I15" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.12131147540983607</v>
+        <v>0.2836065573770492</v>
       </c>
       <c r="L15" t="n">
-        <v>0.013824164634615867</v>
+        <v>0.035456017918050996</v>
       </c>
       <c r="M15" t="n">
-        <v>0.104918032786885</v>
+        <v>0.29016393442623</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0158375702144147</v>
+        <v>0.0309600338234214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" t="n">
         <v>22.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>2.80292181729026E-52</v>
       </c>
       <c r="G16" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>3.00993796663873E-54</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0140173036571462</v>
+        <v>0.0427896637954987</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -4227,43 +4233,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E17" t="n">
         <v>22.0</v>
       </c>
-      <c r="E17" t="n">
-        <v>3.0</v>
-      </c>
       <c r="F17" t="n">
-        <v>7.68773015978005E-6</v>
+        <v>0.0264657089226563</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>1.07735415728373E-51</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>3.12480110971832E-4</v>
       </c>
       <c r="I17" t="n">
-        <v>20.0</v>
+        <v>38.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.278688524590164</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -4271,145 +4277,145 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="E18" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" t="n">
-        <v>8.86956258606943E-6</v>
+        <v>2.15152998511875E-52</v>
       </c>
       <c r="G18" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>3.9402702150327E-53</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00258960788016878</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J18" t="n">
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.21311475409836064</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.222950819672131</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0221294609085427</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.032683238965917</v>
+        <v>3.99238134509494E-14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.80791391376607E-5</v>
+        <v>6.33509035533591E-44</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0158377327035288</v>
+        <v>3.21222521480811E-4</v>
       </c>
       <c r="I19" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J19" t="n">
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09672131147540983</v>
+        <v>0.12131147540983607</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005184061737980951</v>
+        <v>0.0207362469519238</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0983606557377049</v>
+        <v>0.108196721311475</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>0.0234400115732538</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.2396445305271E-5</v>
+        <v>0.351661886869928</v>
       </c>
       <c r="G20" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>1.6377608916468E-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>0.0650273224043714</v>
       </c>
       <c r="I20" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J20" t="n">
         <v>100.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.04262295081967213</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>0.013824164634615865</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0459016393442623</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>0.0103681234759619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21" t="n">
         <v>10.0</v>
@@ -4418,16 +4424,16 @@
         <v>5.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00232438553073653</v>
+        <v>1.01275238485383E-33</v>
       </c>
       <c r="G21" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>1.14478008279796E-44</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00312851573511295</v>
+        <v>0.00184261710124157</v>
       </c>
       <c r="I21" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J21" t="n">
         <v>100.0</v>
@@ -4447,43 +4453,43 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D22" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F22" t="n">
-        <v>7.50854966094337E-5</v>
+        <v>5.77715610116702E-51</v>
       </c>
       <c r="G22" t="n">
-        <v>1.6843412129691E-4</v>
+        <v>2.76189896281087E-48</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00546448087431694</v>
+        <v>7.34222906241853E-4</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -4491,101 +4497,101 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.88728054374541E-6</v>
+        <v>0.311000222627518</v>
       </c>
       <c r="G23" t="n">
-        <v>7.60159209284453E-4</v>
+        <v>4.18684617808435E-25</v>
       </c>
       <c r="H23" t="n">
-        <v>0.138251366120219</v>
+        <v>0.01878874399977</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.09672131147540983</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>0.005184061737980951</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0934426229508197</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0</v>
+        <v>0.0110647304542714</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" t="n">
         <v>2.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0245342718279607</v>
+        <v>0.47829682112336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00576711873541602</v>
+        <v>2.76964455514074E-11</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00163934426229508</v>
+        <v>5.46448087431694E-4</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0475409836065574</v>
+        <v>0.0459016393442623</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00930567560979585</v>
+        <v>0.00691208231730793</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D25" t="n">
         <v>22.0</v>
@@ -4594,25 +4600,25 @@
         <v>2.0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.42999433201088E-6</v>
+        <v>2.44225677947645E-52</v>
       </c>
       <c r="G25" t="n">
-        <v>1.261230266548E-5</v>
+        <v>5.15176846348012E-49</v>
       </c>
       <c r="H25" t="n">
         <v>0.126229508196721</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04590163934426229</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006912082317307932</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="n">
         <v>0.0327868852459016</v>
@@ -4623,43 +4629,43 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.3152204981934E-52</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.30949268988867E-57</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n">
         <v>14.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.33124926812689E-6</v>
-      </c>
-      <c r="G26" t="n">
-        <v>8.22091735956759E-6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.00824471138467414</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0</v>
       </c>
       <c r="J26" t="n">
         <v>100.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4667,34 +4673,34 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D27" t="n">
-        <v>42.0</v>
+        <v>16.0</v>
       </c>
       <c r="E27" t="n">
         <v>3.0</v>
       </c>
       <c r="F27" t="n">
-        <v>7.79208920699832E-6</v>
+        <v>7.49817916753345E-52</v>
       </c>
       <c r="G27" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>2.26887144801693E-55</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K27" t="n">
         <v>0.04918032786885246</v>
@@ -4711,78 +4717,78 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D28" t="n">
-        <v>25.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.63597179579756E-6</v>
+        <v>2.5850446205473E-19</v>
       </c>
       <c r="G28" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>3.94220391641329E-12</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>0.127868852459016</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.080327868852459</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>0.00518406173798095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D29" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="E29" t="n">
         <v>2.0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>2.260855780762E-52</v>
       </c>
       <c r="G29" t="n">
-        <v>7.97856280819595E-5</v>
+        <v>2.64746399606019E-19</v>
       </c>
       <c r="H29" t="n">
-        <v>0.126229508196721</v>
+        <v>0.0497267759562841</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K29" t="n">
         <v>0.03278688524590164</v>
@@ -4799,28 +4805,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D30" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="E30" t="n">
         <v>2.0</v>
       </c>
       <c r="F30" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>2.27751905970939E-52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>1.25029382992555E-51</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>0.126229508196721</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4829,7 +4835,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -4843,28 +4849,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D31" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E31" t="n">
         <v>2.0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.10934429200501E-5</v>
+        <v>8.51621276583305E-10</v>
       </c>
       <c r="G31" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>2.67187853429295E-19</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00233398166157266</v>
+        <v>0.00163934426229508</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4873,39 +4879,39 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01393174730489832</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0508196721311475</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>0.00930567560979585</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D32" t="n">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="E32" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.81835524957289E-6</v>
+        <v>2.24404163047277E-52</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>3.98654102824224E-53</v>
       </c>
       <c r="H32" t="n">
         <v>0.0</v>
@@ -4917,13 +4923,13 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -4931,28 +4937,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D33" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="E33" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.89757864438267E-6</v>
+        <v>1.50965218392305E-5</v>
       </c>
       <c r="G33" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>2.51398592975446E-29</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0307470970207998</v>
+        <v>0.00108267622232229</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4961,42 +4967,42 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0704918032786885</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0</v>
+        <v>0.0155521852139428</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D34" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="E34" t="n">
         <v>4.0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.81835524957289E-6</v>
+        <v>1.05875257798897E-42</v>
       </c>
       <c r="G34" t="n">
-        <v>3.93371172920246E-4</v>
+        <v>1.5586327761122E-34</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0203619779440649</v>
+        <v>0.0121298061722126</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -5019,28 +5025,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D35" t="n">
-        <v>7.0</v>
+        <v>42.0</v>
       </c>
       <c r="E35" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0326867266558607</v>
+        <v>3.12621132021359E-52</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00673965343685271</v>
+        <v>1.30970951370463E-57</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -5049,13 +5055,13 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -5063,28 +5069,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D36" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="E36" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="F36" t="n">
-        <v>7.0122095203046E-6</v>
+        <v>5.52221708391332E-51</v>
       </c>
       <c r="G36" t="n">
-        <v>1.10014838189947E-4</v>
+        <v>1.50197580684303E-48</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0635760891435361</v>
+        <v>0.00965054988772628</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -5093,13 +5099,13 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.13114754098360656</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.131147540983607</v>
+        <v>0.19672131147541</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -5107,28 +5113,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D37" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0830974642385662</v>
+        <v>2.49258465455825E-52</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00121942728807241</v>
+        <v>9.62879550536217E-10</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00961378160600166</v>
+        <v>0.126229508196721</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -5137,42 +5143,42 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0524590163934426</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0103681234759619</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D38" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00797896269702576</v>
+        <v>4.67826483960724E-42</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00121942728807241</v>
+        <v>5.50372092213851E-11</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0158377327035288</v>
+        <v>0.218032786885246</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -5181,13 +5187,13 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -5195,28 +5201,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D39" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="E39" t="n">
         <v>2.0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.13357177098942E-6</v>
+        <v>1.51444796754987E-50</v>
       </c>
       <c r="G39" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>2.18923842615147E-52</v>
       </c>
       <c r="H39" t="n">
-        <v>0.138251366120219</v>
+        <v>0.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -5225,10 +5231,10 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.0639344262295082</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0</v>
+        <v>0.005184061737980951</v>
       </c>
       <c r="M39" t="n">
         <v>0.0327868852459016</v>
@@ -5239,28 +5245,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D40" t="n">
         <v>23.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F40" t="n">
-        <v>5.88728054374541E-6</v>
+        <v>3.97368944803822E-52</v>
       </c>
       <c r="G40" t="n">
-        <v>1.238605095624E-5</v>
+        <v>1.56252812736314E-43</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>0.00565610498446247</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -5269,13 +5275,13 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -5283,28 +5289,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D41" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="E41" t="n">
         <v>10.0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.76589381363557E-6</v>
+        <v>1.18776850203195E-51</v>
       </c>
       <c r="G41" t="n">
-        <v>4.86510393631137E-5</v>
+        <v>7.98954034344187E-40</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0110596879576118</v>
+        <v>0.0881885188354147</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -5327,43 +5333,43 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D42" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="E42" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.47847829370824E-5</v>
+        <v>2.6772157361709E-52</v>
       </c>
       <c r="G42" t="n">
-        <v>7.25661236027677E-6</v>
+        <v>9.230765226111E-50</v>
       </c>
       <c r="H42" t="n">
-        <v>3.36518832027516E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -5371,28 +5377,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D43" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.20719365583693E-6</v>
+        <v>2.16568960313451E-51</v>
       </c>
       <c r="G43" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>9.91115542194463E-23</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0497267759562841</v>
+        <v>0.0276762702283201</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -5401,13 +5407,13 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -5415,28 +5421,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="D44" t="n">
         <v>22.0</v>
       </c>
       <c r="E44" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.29607358754569E-5</v>
+        <v>3.66214905882375E-52</v>
       </c>
       <c r="G44" t="n">
-        <v>9.32638501624906E-6</v>
+        <v>6.05511807174404E-36</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0153924317584233</v>
+        <v>0.129106744210557</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -5445,86 +5451,86 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.26229508196721313</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L44" t="n">
         <v>0.0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.263934426229508</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N44" t="n">
-        <v>0.00518406173798094</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0</v>
+        <v>42.0</v>
       </c>
       <c r="E45" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.07301348573946E-4</v>
+        <v>2.80394557748708E-52</v>
       </c>
       <c r="G45" t="n">
-        <v>3.84593196546353E-7</v>
+        <v>1.72632653948262E-56</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00634808858158152</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.27704918032786885</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L45" t="n">
-        <v>0.018041064501878878</v>
+        <v>0.0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.275409836065574</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0129313219302724</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D46" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="E46" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0883476674312078</v>
+        <v>2.6088788469687E-52</v>
       </c>
       <c r="G46" t="n">
-        <v>1.20475347335272E-4</v>
+        <v>9.25856169179464E-50</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0165575838015097</v>
+        <v>0.138251366120219</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -5533,13 +5539,13 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -5547,34 +5553,34 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J47" t="e">
-        <v>#NUM!</v>
+        <v>101</v>
+      </c>
+      <c r="D47" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.29061329137188E-52</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.92533686003836E-51</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0655737704918033</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
       </c>
       <c r="K47" t="n">
         <v>0.03278688524590164</v>
@@ -5582,154 +5588,154 @@
       <c r="L47" t="n">
         <v>0.0</v>
       </c>
-      <c r="M47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N47" t="e">
-        <v>#NUM!</v>
+      <c r="M47" t="n">
+        <v>0.0327868852459016</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J48" t="e">
-        <v>#NUM!</v>
+        <v>91</v>
+      </c>
+      <c r="D48" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.5234217387851E-31</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.03534238425299E-40</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0504169516951634</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.26229508196721313</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
       </c>
-      <c r="M48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N48" t="e">
-        <v>#NUM!</v>
+      <c r="M48" t="n">
+        <v>0.272131147540984</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0176224213077564</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E49" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F49" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G49" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H49" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I49" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J49" t="e">
-        <v>#NUM!</v>
+        <v>143</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.05480870215672E-41</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.89496779343595E-38</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0417111111309044</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.19672131147540983</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
       </c>
-      <c r="M49" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N49" t="e">
-        <v>#NUM!</v>
+      <c r="M49" t="n">
+        <v>0.245901639344262</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E50" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F50" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G50" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H50" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I50" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J50" t="e">
-        <v>#NUM!</v>
+        <v>113</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8.55699951427983E-6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9.3106556256757E-35</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.00513199623408195</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
       </c>
-      <c r="M50" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N50" t="e">
-        <v>#NUM!</v>
+      <c r="M50" t="n">
+        <v>0.0819672131147541</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -5753,7 +5759,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -5767,13 +5773,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -5797,7 +5803,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.16393442622950818</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -5811,13 +5817,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -5841,7 +5847,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -5855,13 +5861,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -5885,7 +5891,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
@@ -5899,13 +5905,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5943,13 +5949,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -5973,7 +5979,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L56" t="n">
         <v>0.0</v>
@@ -5987,13 +5993,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -6017,7 +6023,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.11475409836065574</v>
+        <v>0.13114754098360656</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
@@ -6031,13 +6037,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -6061,7 +6067,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.36065573770491804</v>
+        <v>0.16393442622950818</v>
       </c>
       <c r="L58" t="n">
         <v>0.0</v>
@@ -6075,13 +6081,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -6105,7 +6111,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.22950819672131148</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -6119,13 +6125,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -6149,7 +6155,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.13114754098360656</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -6163,13 +6169,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -6193,7 +6199,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.36065573770491804</v>
       </c>
       <c r="L61" t="n">
         <v>0.0</v>
@@ -6207,13 +6213,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -6237,7 +6243,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.22950819672131148</v>
       </c>
       <c r="L62" t="n">
         <v>0.0</v>
@@ -6251,13 +6257,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -6281,10 +6287,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5491803278688525</v>
+        <v>0.13114754098360656</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0484154238980037</v>
+        <v>0.0</v>
       </c>
       <c r="M63" t="e">
         <v>#NUM!</v>
@@ -6295,13 +6301,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -6325,7 +6331,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L64" t="n">
         <v>0.0</v>
@@ -6339,13 +6345,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -6369,10 +6375,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5016393442622951</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L65" t="n">
-        <v>0.04899783993761723</v>
+        <v>0.0</v>
       </c>
       <c r="M65" t="e">
         <v>#NUM!</v>
@@ -6383,13 +6389,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -6413,10 +6419,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.36065573770491804</v>
+        <v>0.5672131147540984</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0</v>
+        <v>0.045193602465869585</v>
       </c>
       <c r="M66" t="e">
         <v>#NUM!</v>
@@ -6427,13 +6433,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -6457,7 +6463,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L67" t="n">
         <v>0.0</v>
@@ -6471,13 +6477,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D68" t="e">
         <v>#NUM!</v>
@@ -6501,7 +6507,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.45901639344262296</v>
       </c>
       <c r="L68" t="n">
         <v>0.0</v>
@@ -6515,13 +6521,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>
@@ -6545,10 +6551,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6508196721311476</v>
+        <v>0.36065573770491804</v>
       </c>
       <c r="L69" t="n">
-        <v>0.020519107492370018</v>
+        <v>0.0</v>
       </c>
       <c r="M69" t="e">
         <v>#NUM!</v>
@@ -6559,13 +6565,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D70" t="e">
         <v>#NUM!</v>
@@ -6589,7 +6595,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K70" t="n">
-        <v>0.3114754098360656</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L70" t="n">
         <v>0.0</v>
@@ -6603,13 +6609,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D71" t="e">
         <v>#NUM!</v>
@@ -6633,7 +6639,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K71" t="n">
-        <v>0.19672131147540983</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
@@ -6647,13 +6653,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D72" t="e">
         <v>#NUM!</v>
@@ -6677,10 +6683,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.6540983606557377</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0</v>
+        <v>0.07143646270977487</v>
       </c>
       <c r="M72" t="e">
         <v>#NUM!</v>
@@ -6691,13 +6697,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D73" t="e">
         <v>#NUM!</v>
@@ -6721,7 +6727,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L73" t="n">
         <v>0.0</v>
@@ -6738,10 +6744,10 @@
         <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" t="e">
         <v>#NUM!</v>
@@ -6765,10 +6771,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K74" t="n">
-        <v>0.4786885245901639</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04147249390384757</v>
+        <v>0.0</v>
       </c>
       <c r="M74" t="e">
         <v>#NUM!</v>
@@ -6782,42 +6788,130 @@
         <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N75" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.46885245901639344</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.03110437042788568</v>
+      </c>
+      <c r="M76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N76" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
         <v>145</v>
       </c>
-      <c r="D75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K75" t="n">
+      <c r="D77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.09836065573770492</v>
       </c>
-      <c r="L75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N75" t="e">
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N77" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_proximal proliferative (PP, magnoid).xlsx
+++ b/output/LUAD_statistics_proximal proliferative (PP, magnoid).xlsx
@@ -54,81 +54,81 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -252,61 +252,106 @@
     <t>63</t>
   </si>
   <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
     <t>Mutation SETD2</t>
   </si>
   <si>
+    <t>Deletion ARID1B</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern KRAS_and_STK11</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Deletion ARID1B</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
+    <t>Mutation RBM10</t>
+  </si>
+  <si>
+    <t>Pattern XOR_KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Amplification ATM</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
   </si>
   <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
-    <t>Pattern KRAS_and_STK11</t>
-  </si>
-  <si>
-    <t>Amplification ATM</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation RBM10</t>
-  </si>
-  <si>
-    <t>Pattern XOR_KEAP1</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Amplification NFE2L2</t>
+  </si>
+  <si>
     <t>Mutation ROS1</t>
   </si>
   <si>
+    <t>Deletion ROS1</t>
+  </si>
+  <si>
+    <t>Mutation CCND1</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR</t>
+  </si>
+  <si>
     <t>Pattern XOR_SMARCA4</t>
   </si>
   <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Deletion ROS1</t>
-  </si>
-  <si>
-    <t>Mutation CCND1</t>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Pattern XOR_ROS1</t>
+  </si>
+  <si>
+    <t>Amplification PIK3CA</t>
+  </si>
+  <si>
+    <t>Deletion ARID2</t>
+  </si>
+  <si>
+    <t>Deletion KEAP1</t>
+  </si>
+  <si>
+    <t>Deletion RB1</t>
+  </si>
+  <si>
+    <t>Mutation TSC1</t>
+  </si>
+  <si>
+    <t>Pattern OR_PIK3CA</t>
+  </si>
+  <si>
+    <t>Pattern XOR_RIT1</t>
+  </si>
+  <si>
+    <t>Amplification ERBB2</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
   </si>
   <si>
     <t>Mutation RET</t>
@@ -315,52 +360,7 @@
     <t>Mutation STK11</t>
   </si>
   <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Amplification ERBB2</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation TSC1</t>
-  </si>
-  <si>
-    <t>Pattern OR_PIK3CA</t>
-  </si>
-  <si>
     <t>Pattern XOR_CCND1</t>
-  </si>
-  <si>
-    <t>Amplification NFE2L2</t>
-  </si>
-  <si>
-    <t>Amplification PIK3CA</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Deletion RB1</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Pattern XOR_ROS1</t>
-  </si>
-  <si>
-    <t>Deletion ARID2</t>
-  </si>
-  <si>
-    <t>Deletion KEAP1</t>
-  </si>
-  <si>
-    <t>Pattern XOR_RIT1</t>
   </si>
   <si>
     <t>Amplification AKT1</t>
@@ -617,37 +617,37 @@
         <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00264948356786914</v>
+        <v>7.73976893251139E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.85508434727297E-6</v>
+        <v>5.10853582139852E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>0.0140173036571462</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05901639344262295</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L2" t="n">
-        <v>0.011462391783280344</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0524590163934426</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0169310747375188</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -661,37 +661,37 @@
         <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610669681744784</v>
+        <v>0.00264948356786914</v>
       </c>
       <c r="G3" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>4.85508434727297E-6</v>
       </c>
       <c r="H3" t="n">
-        <v>5.51193654396454E-5</v>
+        <v>2.77854959711031E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15245901639344261</v>
+        <v>0.054098360655737705</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02051910749237004</v>
+        <v>0.015552185213942847</v>
       </c>
       <c r="M3" t="n">
-        <v>0.150819672131148</v>
+        <v>0.0557377049180328</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0229247835665607</v>
+        <v>0.0114623917832803</v>
       </c>
     </row>
     <row r="4">
@@ -705,37 +705,37 @@
         <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>0.00526662032626969</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06674780108582E-6</v>
+        <v>5.05700902234169E-6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00442651694436194</v>
+        <v>2.77854959711031E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.06229508196721312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.006912082317307935</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.059016393442623</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0114623917832803</v>
       </c>
     </row>
     <row r="5">
@@ -749,37 +749,37 @@
         <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="n">
         <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00526662032626969</v>
+        <v>3.82704214845158E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>1.25365254515941E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>0.00819672131147542</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01393174730489832</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0573770491803279</v>
+        <v>0.0344262295081967</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0115919144456811</v>
+        <v>0.00518406173798095</v>
       </c>
     </row>
     <row r="6">
@@ -793,19 +793,19 @@
         <v>97</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.82704214845158E-5</v>
+        <v>7.33124926812689E-6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.25365254515941E-5</v>
+        <v>1.26884414641834E-5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00819672131147542</v>
+        <v>0.0101139205334815</v>
       </c>
       <c r="I6" t="n">
         <v>60.0</v>
@@ -814,13 +814,13 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -831,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -840,16 +840,16 @@
         <v>22.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.50779552135965E-6</v>
+        <v>7.66181599492114E-6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>2.06674780108582E-6</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0427896637954987</v>
+        <v>0.00442651694436194</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -858,13 +858,13 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -875,25 +875,25 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="E8" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.211145766579027</v>
+        <v>7.33124926812689E-6</v>
       </c>
       <c r="G8" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>8.22091735956759E-6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.12480110971832E-4</v>
+        <v>0.00824471138467414</v>
       </c>
       <c r="I8" t="n">
         <v>60.0</v>
@@ -902,16 +902,16 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.283606557377049</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0155521852139428</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -919,25 +919,25 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>7.61019742613133E-6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>5.13445780757726E-6</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00706086939858773</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>60.0</v>
@@ -946,13 +946,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.11475409836065574</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.114754098360656</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -963,40 +963,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.33124926812689E-6</v>
+        <v>7.66181599492114E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.26884414641834E-5</v>
+        <v>7.30630227306503E-6</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0101139205334815</v>
+        <v>0.00706086939858773</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.114754098360656</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -1007,43 +1007,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.295197089774301</v>
+        <v>0.0610669681744784</v>
       </c>
       <c r="G11" t="n">
-        <v>5.97404173590969E-4</v>
+        <v>8.11198387904296E-6</v>
       </c>
       <c r="H11" t="n">
-        <v>5.46448087431694E-4</v>
+        <v>5.51193654396454E-5</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04590163934426229</v>
+        <v>0.14754098360655737</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006912082317307932</v>
+        <v>0.02443790139344032</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0475409836065574</v>
+        <v>0.152459016393443</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00518406173798095</v>
+        <v>0.0232481392198717</v>
       </c>
     </row>
     <row r="12">
@@ -1051,25 +1051,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="n">
         <v>23.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.61019742613133E-6</v>
+        <v>8.86956258606943E-6</v>
       </c>
       <c r="G12" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>9.61482991365883E-8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>0.00258960788016878</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -1078,16 +1078,16 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.218032786885246</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0</v>
+        <v>0.0155521852139429</v>
       </c>
     </row>
     <row r="13">
@@ -1095,25 +1095,25 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.20522706918027E-5</v>
+        <v>0.00232438553073653</v>
       </c>
       <c r="G13" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>8.11198387904296E-6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0114754098360656</v>
+        <v>0.00312851573511295</v>
       </c>
       <c r="I13" t="n">
         <v>40.0</v>
@@ -1122,13 +1122,13 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -1139,40 +1139,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
         <v>22.0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>7.68773015978005E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5845282503788E-5</v>
+        <v>2.0756944545561E-6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0198402813041937</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1183,43 +1183,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0586083640377196</v>
+        <v>7.63597179579756E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>9.64416941005178E-5</v>
+        <v>5.10853582139852E-6</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.12131147540983607</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L15" t="n">
-        <v>0.013824164634615867</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.111475409836066</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0241922881105778</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1227,25 +1227,25 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
         <v>22.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>7.45701001273995E-6</v>
       </c>
       <c r="G16" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>7.97856280819595E-5</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0140173036571462</v>
+        <v>0.126229508196721</v>
       </c>
       <c r="I16" t="n">
         <v>20.0</v>
@@ -1254,13 +1254,13 @@
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1274,22 +1274,22 @@
         <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.68773015978005E-6</v>
+        <v>0.032683238965917</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>1.80791391376607E-5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>0.0158377327035288</v>
       </c>
       <c r="I17" t="n">
         <v>20.0</v>
@@ -1298,16 +1298,16 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.09508196721311475</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>0.006912082317307935</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0852459016393443</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>0.0129313219302724</v>
       </c>
     </row>
     <row r="18">
@@ -1315,25 +1315,25 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="E18" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" t="n">
-        <v>8.86956258606943E-6</v>
+        <v>1.20522706918027E-5</v>
       </c>
       <c r="G18" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00258960788016878</v>
+        <v>0.0114754098360656</v>
       </c>
       <c r="I18" t="n">
         <v>20.0</v>
@@ -1342,13 +1342,13 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.21311475409836064</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.213114754098361</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1359,25 +1359,25 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.032683238965917</v>
+        <v>7.73976893251139E-6</v>
       </c>
       <c r="G19" t="n">
-        <v>1.80791391376607E-5</v>
+        <v>1.5845282503788E-5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0158377327035288</v>
+        <v>0.0198402813041937</v>
       </c>
       <c r="I19" t="n">
         <v>20.0</v>
@@ -1386,16 +1386,16 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09672131147540983</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005184061737980951</v>
+        <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0950819672131148</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00691208231730794</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1403,25 +1403,25 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E20" t="n">
         <v>16.0</v>
       </c>
-      <c r="E20" t="n">
-        <v>3.0</v>
-      </c>
       <c r="F20" t="n">
-        <v>1.2396445305271E-5</v>
+        <v>1.07301348573946E-4</v>
       </c>
       <c r="G20" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>3.84593196546353E-7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>0.00634808858158152</v>
       </c>
       <c r="I20" t="n">
         <v>20.0</v>
@@ -1430,16 +1430,16 @@
         <v>100.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.27704918032786885</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>0.01630211354117627</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.280327868852459</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>0.0163021135411763</v>
       </c>
     </row>
     <row r="21">
@@ -1447,43 +1447,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00232438553073653</v>
+        <v>0.295197089774301</v>
       </c>
       <c r="G21" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>5.97404173590969E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00312851573511295</v>
+        <v>5.46448087431694E-4</v>
       </c>
       <c r="I21" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
         <v>100.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0459016393442623</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>0.0103681234759619</v>
       </c>
     </row>
     <row r="22">
@@ -1491,25 +1491,25 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D22" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F22" t="n">
-        <v>7.33124926812689E-6</v>
+        <v>1.2396445305271E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>8.22091735956759E-6</v>
+        <v>5.13445780757726E-6</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00824471138467414</v>
+        <v>0.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -1518,13 +1518,13 @@
         <v>100.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -1535,25 +1535,25 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>113</v>
       </c>
       <c r="D23" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="E23" t="n">
         <v>3.0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.63597179579756E-6</v>
+        <v>7.50779552135965E-6</v>
       </c>
       <c r="G23" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>1.27649430555578E-5</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>0.0427896637954987</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -1579,25 +1579,25 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D24" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F24" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>1.47847829370824E-5</v>
       </c>
       <c r="G24" t="n">
-        <v>7.97856280819595E-5</v>
+        <v>7.25661236027677E-6</v>
       </c>
       <c r="H24" t="n">
-        <v>0.126229508196721</v>
+        <v>3.36518832027516E-4</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -1606,13 +1606,13 @@
         <v>100.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -1623,25 +1623,25 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D25" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.47847829370824E-5</v>
+        <v>0.211145766579027</v>
       </c>
       <c r="G25" t="n">
-        <v>7.25661236027677E-6</v>
+        <v>9.61482991365883E-8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.36518832027516E-4</v>
+        <v>3.12480110971832E-4</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -1650,13 +1650,13 @@
         <v>100.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.278688524590164</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -1667,25 +1667,25 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>115</v>
       </c>
       <c r="D26" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="E26" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.07301348573946E-4</v>
+        <v>0.0586083640377196</v>
       </c>
       <c r="G26" t="n">
-        <v>3.84593196546353E-7</v>
+        <v>9.64416941005178E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00634808858158152</v>
+        <v>0.00213660882812275</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -1694,16 +1694,16 @@
         <v>100.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.27704918032786885</v>
+        <v>0.10491803278688525</v>
       </c>
       <c r="L26" t="n">
-        <v>0.018041064501878878</v>
+        <v>0.015837570214414693</v>
       </c>
       <c r="M26" t="n">
-        <v>0.298360655737705</v>
+        <v>0.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0307179657323611</v>
+        <v>0.023756355321622</v>
       </c>
     </row>
     <row r="27">
@@ -1758,7 +1758,7 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1890,7 +1890,7 @@
         <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -2242,7 +2242,7 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2286,7 +2286,7 @@
         <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2550,7 +2550,7 @@
         <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2638,7 +2638,7 @@
         <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2682,7 +2682,7 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2726,7 +2726,7 @@
         <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -2926,10 +2926,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5491803278688525</v>
+        <v>0.601639344262295</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0484154238980037</v>
+        <v>0.07126906596486611</v>
       </c>
       <c r="M54" t="e">
         <v>#NUM!</v>
@@ -2990,7 +2990,7 @@
         <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -3058,10 +3058,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5016393442622951</v>
+        <v>0.5163934426229508</v>
       </c>
       <c r="L57" t="n">
-        <v>0.04899783993761723</v>
+        <v>0.04588211919056464</v>
       </c>
       <c r="M57" t="e">
         <v>#NUM!</v>
@@ -3234,10 +3234,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6508196721311476</v>
+        <v>0.6475409836065574</v>
       </c>
       <c r="L61" t="n">
-        <v>0.020519107492370018</v>
+        <v>0.05898096487683853</v>
       </c>
       <c r="M61" t="e">
         <v>#NUM!</v>
@@ -3386,7 +3386,7 @@
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -3454,10 +3454,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4786885245901639</v>
+        <v>0.5311475409836065</v>
       </c>
       <c r="L66" t="n">
-        <v>0.04147249390384757</v>
+        <v>0.06877435069968205</v>
       </c>
       <c r="M66" t="e">
         <v>#NUM!</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -3576,42 +3576,42 @@
         <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00264948356786914</v>
+        <v>7.73976893251139E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.85508434727297E-6</v>
+        <v>5.10853582139852E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>0.0140173036571462</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05901639344262295</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L2" t="n">
-        <v>0.011462391783280344</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0573770491803279</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0139317473048983</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -3620,42 +3620,42 @@
         <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610669681744784</v>
+        <v>0.00264948356786914</v>
       </c>
       <c r="G3" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>4.85508434727297E-6</v>
       </c>
       <c r="H3" t="n">
-        <v>5.51193654396454E-5</v>
+        <v>2.77854959711031E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15245901639344261</v>
+        <v>0.054098360655737705</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02051910749237004</v>
+        <v>0.015552185213942847</v>
       </c>
       <c r="M3" t="n">
-        <v>0.150819672131148</v>
+        <v>0.0557377049180328</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0215829701181765</v>
+        <v>0.0158375702144147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
@@ -3664,42 +3664,42 @@
         <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>0.00526662032626969</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06674780108582E-6</v>
+        <v>5.05700902234169E-6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00442651694436194</v>
+        <v>2.77854959711031E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.06229508196721312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.006912082317307935</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.039344262295082</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0138241646346159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -3708,31 +3708,31 @@
         <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="n">
         <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00526662032626969</v>
+        <v>3.82704214845158E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>1.25365254515941E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.77854959711031E-4</v>
+        <v>0.00819672131147542</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01393174730489832</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
         <v>0.0327868852459016</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -3752,19 +3752,19 @@
         <v>97</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.82704214845158E-5</v>
+        <v>7.33124926812689E-6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.25365254515941E-5</v>
+        <v>1.26884414641834E-5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00819672131147542</v>
+        <v>0.0101139205334815</v>
       </c>
       <c r="I6" t="n">
         <v>60.0</v>
@@ -3773,24 +3773,24 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0360655737704918</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0103681234759619</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -3799,16 +3799,16 @@
         <v>22.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.50779552135965E-6</v>
+        <v>7.66181599492114E-6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>2.06674780108582E-6</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0427896637954987</v>
+        <v>0.00442651694436194</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -3817,13 +3817,13 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3831,28 +3831,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="E8" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.211145766579027</v>
+        <v>7.33124926812689E-6</v>
       </c>
       <c r="G8" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>8.22091735956759E-6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.12480110971832E-4</v>
+        <v>0.00824471138467414</v>
       </c>
       <c r="I8" t="n">
         <v>60.0</v>
@@ -3861,42 +3861,42 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.283606557377049</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00791878510720735</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.66181599492114E-6</v>
+        <v>7.61019742613133E-6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>5.13445780757726E-6</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00706086939858773</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>60.0</v>
@@ -3905,13 +3905,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.11475409836065574</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.114754098360656</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3919,43 +3919,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.33124926812689E-6</v>
+        <v>7.66181599492114E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.26884414641834E-5</v>
+        <v>7.30630227306503E-6</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0101139205334815</v>
+        <v>0.00706086939858773</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.114754098360656</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3963,72 +3963,72 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.295197089774301</v>
+        <v>0.0610669681744784</v>
       </c>
       <c r="G11" t="n">
-        <v>5.97404173590969E-4</v>
+        <v>8.11198387904296E-6</v>
       </c>
       <c r="H11" t="n">
-        <v>5.46448087431694E-4</v>
+        <v>5.51193654396454E-5</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04590163934426229</v>
+        <v>0.14754098360655737</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006912082317307932</v>
+        <v>0.02443790139344032</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.144262295081967</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>0.0169310747375188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="n">
         <v>23.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.61019742613133E-6</v>
+        <v>8.86956258606943E-6</v>
       </c>
       <c r="G12" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>9.61482991365883E-8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>0.00258960788016878</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -4037,42 +4037,42 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.224590163934426</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0</v>
+        <v>0.0268260933522045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.20522706918027E-5</v>
+        <v>0.00232438553073653</v>
       </c>
       <c r="G13" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>8.11198387904296E-6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0114754098360656</v>
+        <v>0.00312851573511295</v>
       </c>
       <c r="I13" t="n">
         <v>40.0</v>
@@ -4081,13 +4081,13 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -4095,43 +4095,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
         <v>22.0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>7.68773015978005E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5845282503788E-5</v>
+        <v>2.0756944545561E-6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0198402813041937</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -4139,72 +4139,72 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0586083640377196</v>
+        <v>7.63597179579756E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>9.64416941005178E-5</v>
+        <v>5.10853582139852E-6</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.12131147540983607</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L15" t="n">
-        <v>0.013824164634615867</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.104918032786885</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0158375702144147</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
         <v>22.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.73976893251139E-6</v>
+        <v>7.45701001273995E-6</v>
       </c>
       <c r="G16" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>7.97856280819595E-5</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0140173036571462</v>
+        <v>0.126229508196721</v>
       </c>
       <c r="I16" t="n">
         <v>20.0</v>
@@ -4213,13 +4213,13 @@
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -4227,28 +4227,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.68773015978005E-6</v>
+        <v>0.032683238965917</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>1.80791391376607E-5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>0.0158377327035288</v>
       </c>
       <c r="I17" t="n">
         <v>20.0</v>
@@ -4257,42 +4257,42 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.09508196721311475</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>0.006912082317307935</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0950819672131148</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>0.0103681234759619</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="E18" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" t="n">
-        <v>8.86956258606943E-6</v>
+        <v>1.20522706918027E-5</v>
       </c>
       <c r="G18" t="n">
-        <v>9.61482991365883E-8</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00258960788016878</v>
+        <v>0.0114754098360656</v>
       </c>
       <c r="I18" t="n">
         <v>20.0</v>
@@ -4301,42 +4301,42 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.21311475409836064</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.222950819672131</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0221294609085427</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.032683238965917</v>
+        <v>7.73976893251139E-6</v>
       </c>
       <c r="G19" t="n">
-        <v>1.80791391376607E-5</v>
+        <v>1.5845282503788E-5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0158377327035288</v>
+        <v>0.0198402813041937</v>
       </c>
       <c r="I19" t="n">
         <v>20.0</v>
@@ -4345,13 +4345,13 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09672131147540983</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005184061737980951</v>
+        <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0983606557377049</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -4359,28 +4359,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E20" t="n">
         <v>16.0</v>
       </c>
-      <c r="E20" t="n">
-        <v>3.0</v>
-      </c>
       <c r="F20" t="n">
-        <v>1.2396445305271E-5</v>
+        <v>1.07301348573946E-4</v>
       </c>
       <c r="G20" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>3.84593196546353E-7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>0.00634808858158152</v>
       </c>
       <c r="I20" t="n">
         <v>20.0</v>
@@ -4389,57 +4389,57 @@
         <v>100.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.27704918032786885</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>0.01630211354117627</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.286885245901639</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>0.0235036209482039</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D21" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="E21" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00232438553073653</v>
+        <v>7.50854966094337E-5</v>
       </c>
       <c r="G21" t="n">
-        <v>8.11198387904296E-6</v>
+        <v>1.6843412129691E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00312851573511295</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="I21" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -4447,28 +4447,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>116</v>
       </c>
       <c r="D22" t="n">
-        <v>4.0</v>
+        <v>23.0</v>
       </c>
       <c r="E22" t="n">
         <v>2.0</v>
       </c>
       <c r="F22" t="n">
-        <v>7.50854966094337E-5</v>
+        <v>5.88728054374541E-6</v>
       </c>
       <c r="G22" t="n">
-        <v>1.6843412129691E-4</v>
+        <v>7.60159209284453E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00546448087431694</v>
+        <v>0.138251366120219</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -4491,28 +4491,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D23" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
         <v>2.0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.88728054374541E-6</v>
+        <v>0.0245342718279607</v>
       </c>
       <c r="G23" t="n">
-        <v>7.60159209284453E-4</v>
+        <v>0.00576711873541602</v>
       </c>
       <c r="H23" t="n">
-        <v>0.138251366120219</v>
+        <v>0.00163934426229508</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -4527,54 +4527,54 @@
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0</v>
+        <v>0.0109289617486339</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" t="n">
         <v>2.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0245342718279607</v>
+        <v>0.295197089774301</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00576711873541602</v>
+        <v>5.97404173590969E-4</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00163934426229508</v>
+        <v>5.46448087431694E-4</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0475409836065574</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00930567560979585</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -4582,10 +4582,10 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D25" t="n">
         <v>22.0</v>
@@ -4609,10 +4609,10 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04590163934426229</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006912082317307932</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="n">
         <v>0.0327868852459016</v>
@@ -4623,43 +4623,43 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D26" t="n">
-        <v>14.0</v>
+        <v>42.0</v>
       </c>
       <c r="E26" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.33124926812689E-6</v>
+        <v>7.79208920699832E-6</v>
       </c>
       <c r="G26" t="n">
-        <v>8.22091735956759E-6</v>
+        <v>5.13445780757726E-6</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00824471138467414</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4667,25 +4667,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D27" t="n">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
       <c r="E27" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F27" t="n">
-        <v>7.79208920699832E-6</v>
+        <v>7.45701001273995E-6</v>
       </c>
       <c r="G27" t="n">
-        <v>5.13445780757726E-6</v>
+        <v>1.27649430555578E-5</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
@@ -4697,13 +4697,13 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -4711,43 +4711,43 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D28" t="n">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.63597179579756E-6</v>
+        <v>2.10934429200501E-5</v>
       </c>
       <c r="G28" t="n">
-        <v>5.10853582139852E-6</v>
+        <v>5.05700902234169E-6</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>0.00233398166157266</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.06229508196721312</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0</v>
+        <v>0.006912082317307935</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -4755,43 +4755,43 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D29" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>7.81835524957289E-6</v>
       </c>
       <c r="G29" t="n">
-        <v>7.97856280819595E-5</v>
+        <v>2.0756944545561E-6</v>
       </c>
       <c r="H29" t="n">
-        <v>0.126229508196721</v>
+        <v>0.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -4799,28 +4799,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D30" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F30" t="n">
-        <v>7.45701001273995E-6</v>
+        <v>7.89757864438267E-6</v>
       </c>
       <c r="G30" t="n">
-        <v>1.27649430555578E-5</v>
+        <v>7.30630227306503E-6</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>0.0307470970207998</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4829,13 +4829,13 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -4843,43 +4843,43 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D31" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.10934429200501E-5</v>
+        <v>1.2396445305271E-5</v>
       </c>
       <c r="G31" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>5.13445780757726E-6</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00233398166157266</v>
+        <v>0.0</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01393174730489832</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -4887,28 +4887,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D32" t="n">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="E32" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F32" t="n">
         <v>7.81835524957289E-6</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0756944545561E-6</v>
+        <v>3.93371172920246E-4</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>0.0203619779440649</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4917,13 +4917,13 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -4931,28 +4931,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D33" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="E33" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.89757864438267E-6</v>
+        <v>0.0326867266558607</v>
       </c>
       <c r="G33" t="n">
-        <v>7.30630227306503E-6</v>
+        <v>0.00673965343685271</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0307470970207998</v>
+        <v>0.00213660882812275</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4961,13 +4961,13 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -4975,28 +4975,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D34" t="n">
         <v>23.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.81835524957289E-6</v>
+        <v>7.0122095203046E-6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.93371172920246E-4</v>
+        <v>1.10014838189947E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0203619779440649</v>
+        <v>0.0635760891435361</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -5005,13 +5005,13 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.13114754098360656</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.131147540983607</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -5019,28 +5019,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E35" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0326867266558607</v>
+        <v>0.0830974642385662</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00673965343685271</v>
+        <v>0.00121942728807241</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00213660882812275</v>
+        <v>0.00961378160600166</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -5049,13 +5049,13 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0655737704918033</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -5063,28 +5063,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D36" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="E36" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="F36" t="n">
-        <v>7.0122095203046E-6</v>
+        <v>0.00797896269702576</v>
       </c>
       <c r="G36" t="n">
-        <v>1.10014838189947E-4</v>
+        <v>0.00121942728807241</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0635760891435361</v>
+        <v>0.0158377327035288</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -5093,13 +5093,13 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.13114754098360656</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.131147540983607</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -5107,28 +5107,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0830974642385662</v>
+        <v>7.13357177098942E-6</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00121942728807241</v>
+        <v>5.05700902234169E-6</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00961378160600166</v>
+        <v>0.138251366120219</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -5137,42 +5137,42 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0524590163934426</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0103681234759619</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D38" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00797896269702576</v>
+        <v>5.88728054374541E-6</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00121942728807241</v>
+        <v>1.238605095624E-5</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0158377327035288</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -5181,13 +5181,13 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -5198,25 +5198,25 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D39" t="n">
         <v>23.0</v>
       </c>
       <c r="E39" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.13357177098942E-6</v>
+        <v>7.76589381363557E-6</v>
       </c>
       <c r="G39" t="n">
-        <v>5.05700902234169E-6</v>
+        <v>4.86510393631137E-5</v>
       </c>
       <c r="H39" t="n">
-        <v>0.138251366120219</v>
+        <v>0.0110596879576118</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -5225,13 +5225,13 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.16393442622950818</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.163934426229508</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -5239,43 +5239,43 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D40" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F40" t="n">
-        <v>5.88728054374541E-6</v>
+        <v>7.50779552135965E-6</v>
       </c>
       <c r="G40" t="n">
-        <v>1.238605095624E-5</v>
+        <v>1.27649430555578E-5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>0.0427896637954987</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -5283,43 +5283,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D41" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="E41" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.76589381363557E-6</v>
+        <v>1.47847829370824E-5</v>
       </c>
       <c r="G41" t="n">
-        <v>4.86510393631137E-5</v>
+        <v>7.25661236027677E-6</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0110596879576118</v>
+        <v>3.36518832027516E-4</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.16393442622950818</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.163934426229508</v>
+        <v>0.0819672131147541</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -5327,28 +5327,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D42" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="E42" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.47847829370824E-5</v>
+        <v>0.211145766579027</v>
       </c>
       <c r="G42" t="n">
-        <v>7.25661236027677E-6</v>
+        <v>9.61482991365883E-8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.36518832027516E-4</v>
+        <v>3.12480110971832E-4</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -5357,13 +5357,13 @@
         <v>100.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.278688524590164</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -5374,10 +5374,10 @@
         <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D43" t="n">
         <v>16.0</v>
@@ -5418,10 +5418,10 @@
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" t="n">
         <v>22.0</v>
@@ -5451,36 +5451,36 @@
         <v>0.0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.263934426229508</v>
+        <v>0.265573770491803</v>
       </c>
       <c r="N44" t="n">
-        <v>0.00518406173798094</v>
+        <v>0.00691208231730792</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>115</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="E45" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.07301348573946E-4</v>
+        <v>0.0586083640377196</v>
       </c>
       <c r="G45" t="n">
-        <v>3.84593196546353E-7</v>
+        <v>9.64416941005178E-5</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00634808858158152</v>
+        <v>0.00213660882812275</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -5489,16 +5489,16 @@
         <v>100.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.27704918032786885</v>
+        <v>0.10491803278688525</v>
       </c>
       <c r="L45" t="n">
-        <v>0.018041064501878878</v>
+        <v>0.015837570214414693</v>
       </c>
       <c r="M45" t="n">
-        <v>0.275409836065574</v>
+        <v>0.119672131147541</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0129313219302724</v>
+        <v>0.0155521852139429</v>
       </c>
     </row>
     <row r="46">
@@ -5509,7 +5509,7 @@
         <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
         <v>6.0</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>92</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>92</v>
@@ -5635,13 +5635,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
         <v>92</v>
@@ -5861,7 +5861,7 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -5905,7 +5905,7 @@
         <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
         <v>92</v>
@@ -5993,7 +5993,7 @@
         <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -6031,13 +6031,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
         <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -6081,7 +6081,7 @@
         <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
         <v>92</v>
@@ -6281,10 +6281,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5491803278688525</v>
+        <v>0.601639344262295</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0484154238980037</v>
+        <v>0.07126906596486611</v>
       </c>
       <c r="M63" t="e">
         <v>#NUM!</v>
@@ -6369,10 +6369,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5016393442622951</v>
+        <v>0.5163934426229508</v>
       </c>
       <c r="L65" t="n">
-        <v>0.04899783993761723</v>
+        <v>0.04588211919056464</v>
       </c>
       <c r="M65" t="e">
         <v>#NUM!</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
         <v>92</v>
@@ -6545,10 +6545,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6508196721311476</v>
+        <v>0.6475409836065574</v>
       </c>
       <c r="L69" t="n">
-        <v>0.020519107492370018</v>
+        <v>0.05898096487683853</v>
       </c>
       <c r="M69" t="e">
         <v>#NUM!</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>92</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
         <v>92</v>
@@ -6697,7 +6697,7 @@
         <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D73" t="e">
         <v>#NUM!</v>
@@ -6765,10 +6765,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K74" t="n">
-        <v>0.4786885245901639</v>
+        <v>0.5311475409836065</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04147249390384757</v>
+        <v>0.06877435069968205</v>
       </c>
       <c r="M74" t="e">
         <v>#NUM!</v>
